--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tosha\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FEF80939-E0A5-4F68-968F-370FB401F08F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3F710F2-6E51-495B-9F1B-CF2BD7AEFE76}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21165" windowHeight="9555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="214">
   <si>
     <t xml:space="preserve">Таить
 Смеяться
@@ -295,43 +295,6 @@
 Никак не останавливается.   
 Никак не комментирует.  
 Никак не влияет
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">О. Г. Чухонцев. Общее фото : «Многих забыл, а этих помню: Ползиков…» (2016)
-Дело к концу подходит: впадая в детство
-или же в устье, как ни скажи, во что ни впади ―
-все стирается, растекаются все свидетельства,
-а конец абсурден не более, чем прошлое впереди;
-да и что это все ― ни стихи, ни проза, тем более
-мемуар, ― скажет друг-приятель и будет прав, ―
-не история, в общем, а ветхая бутафория,
-маскхалат облезлый: где брючина?
-Г. В. Сапгир. «дощатая голубая...» (1993)
-дощатая голубая
-может быть станция ―
-так промелькнула
-но блеснула вода ―
-возможно купальня и лодки
-темные елки за темной оградой ―
-значит сторожка
-за столиком сижу ―
-может быть павильон и буфет
-но что бы то ни было там голубое
-оно было более
-чем голубое
-для памяти сердца
-Г. Н. Айги. ««срубы я ставил» ты сам говорил...» [Листки — в ветер праздника, 5] (1985)
-чистое «рабочее» дерево
-более чем девяностопроцентное
-в котором трухи обязательных «поэтизмов»
-нет ― как роскоши нет
-в хозяйстве крестьянском
-О. А. Охапкин. Испытание Иова : «Когда я дожил до глухого часа...» (1973)
-Но пробил час, и, более чем нищий,
-Я слёзы лью, и, женщина, закрой
-Глаза твои, и этим хоть согрей
-Студ сердца моего и холод нощи!..
 </t>
   </si>
   <si>
@@ -1830,14 +1793,59 @@
 Общий: быть, верить, выходить</t>
   </si>
   <si>
-    <t>В поэтическом подкорпусе чаще всего употребляется с такими словами, как кончиться, выйти, стать, то есть или глаголами состояния или многозначными словами. В общем подкорпусе семантический пласт остаётся тем же, за исключением слова "верь", которое можно отнести к устойчивому словосочетанию: "вот и верь".</t>
+    <t>Частотность в общем корпусе значительно выше, но конструкция в поэтическом корпусе употребляется.
+В поэтическом подкорпусе чаще всего употребляется с такими словами, как кончиться, выйти, стать, то есть или глаголами состояния или многозначными словами. В общем подкорпусе семантический пласт остаётся тем же, за исключением слова "верь", которое можно отнести к устойчивому словосочетанию: "вот и верь".</t>
+  </si>
+  <si>
+    <t>Конструкция неупотребима в поэтическом подкорпусе</t>
+  </si>
+  <si>
+    <t>Конструкция неупотребима в поэтическом подкорпусе. 0 вхождений</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Г. В. Сапгир. «дощатая голубая...» (1993)
+дощатая голубая
+может быть станция ―
+так промелькнула
+но блеснула вода ―
+возможно купальня и лодки
+темные елки за темной оградой ―
+значит сторожка
+за столиком сижу ―
+может быть павильон и буфет
+но что бы то ни было там голубое
+оно было более
+чем голубое
+для памяти сердца
+Г. Н. Айги. ««срубы я ставил» ты сам говорил...» [Листки — в ветер праздника, 5] (1985)
+чистое «рабочее» дерево
+более чем девяностопроцентное
+в котором трухи обязательных «поэтизмов»
+нет ― как роскоши нет
+в хозяйстве крестьянском
+Б. Л. Пастернак. «Дома из более чем антрацитных плиток...» [Скрипка Паганини, 2] (1915)
+Дома из более чем антрацитных плиток,
+Сады из более чем медных мозаик,
+И небо более паленое, чем свиток,
+И воздух более надтреснутый, чем вскрик,
+</t>
+  </si>
+  <si>
+    <t>Для поэтического корпуса частотные слова выделить невозможно, но там необычное употребление: "более, чем голубой" и так далее.
+В общем корпусе: вдвое (втрое и т. д.), достаточно, наполовину.</t>
+  </si>
+  <si>
+    <t>Конструкция редка для поэтического корпуса, но играет здесь на неожиданностях, имеет неклассическое употребление, которого читатель вовсе не ожидает. Распространена в основном в общем корпусе.</t>
+  </si>
+  <si>
+    <t>Отсутствуют</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1847,56 +1855,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="12"/>
+      <sz val="10"/>
       <color rgb="FF212529"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
       <charset val="204"/>
     </font>
     <font>
-      <sz val="12"/>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF212529"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF212529"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
       <charset val="204"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF212529"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF212529"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF212529"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1957,81 +1942,72 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -2316,1583 +2292,1607 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="4" width="40.42578125" customWidth="1"/>
+    <col min="2" max="2" width="77.140625" customWidth="1"/>
+    <col min="3" max="3" width="40.42578125" customWidth="1"/>
+    <col min="4" max="4" width="40.42578125" style="2" customWidth="1"/>
     <col min="5" max="5" width="15.140625" customWidth="1"/>
     <col min="9" max="9" width="19.140625" customWidth="1"/>
     <col min="10" max="10" width="41.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
-        <v>171</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="2" t="s">
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="3">
+      <c r="F1" s="6">
         <v>71</v>
       </c>
-      <c r="G1" s="3">
-        <v>374.44997499999999</v>
-      </c>
-      <c r="H1" s="4">
+      <c r="G1" s="6">
+        <v>374.44997499999999</v>
+      </c>
+      <c r="H1" s="7">
         <f>F1/G1</f>
         <v>0.18961144275680616</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="3">
+      <c r="K1" s="6">
         <v>1504</v>
       </c>
-      <c r="L1" s="3">
+      <c r="L1" s="6">
         <f>K1/G1</f>
         <v>4.0165578860033309</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="3" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
-        <v>172</v>
-      </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="8" t="s">
+    <row r="2" spans="1:12" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="9">
         <v>2</v>
       </c>
-      <c r="G2" s="7">
-        <v>374.44997499999999</v>
-      </c>
-      <c r="H2" s="9">
+      <c r="G2" s="9">
+        <v>374.44997499999999</v>
+      </c>
+      <c r="H2" s="11">
         <f>F2/G2</f>
         <v>5.3411674016001741E-3</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7">
+      <c r="J2" s="9"/>
+      <c r="K2" s="9">
         <v>3</v>
       </c>
-      <c r="L2" s="7">
+      <c r="L2" s="9">
         <f t="shared" ref="L2:L44" si="0">K2/G2</f>
         <v>8.0117511024002611E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="3" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
-        <v>173</v>
-      </c>
-      <c r="B3" s="10" t="s">
+    <row r="3" spans="1:12" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="8" t="s">
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="9">
         <v>70</v>
       </c>
-      <c r="G3" s="7">
-        <v>374.44997499999999</v>
-      </c>
-      <c r="H3" s="9">
+      <c r="G3" s="9">
+        <v>374.44997499999999</v>
+      </c>
+      <c r="H3" s="11">
         <f>F3/G3</f>
         <v>0.18694085905600608</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="7">
+      <c r="K3" s="9">
         <v>1041</v>
       </c>
-      <c r="L3" s="7">
+      <c r="L3" s="9">
         <f t="shared" si="0"/>
         <v>2.7800776325328904</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="3" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
-        <v>174</v>
-      </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="11" t="s">
+    <row r="4" spans="1:12" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="9">
         <v>152</v>
       </c>
-      <c r="G4" s="7">
-        <v>374.44997499999999</v>
-      </c>
-      <c r="H4" s="9">
+      <c r="G4" s="9">
+        <v>374.44997499999999</v>
+      </c>
+      <c r="H4" s="11">
         <f>F4/G4</f>
         <v>0.40592872252161322</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7">
+      <c r="J4" s="9"/>
+      <c r="K4" s="9">
         <v>2489</v>
       </c>
-      <c r="L4" s="7">
+      <c r="L4" s="9">
         <f t="shared" si="0"/>
         <v>6.6470828312914163</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="3" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
+    <row r="5" spans="1:12" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="16">
+        <v>0</v>
+      </c>
+      <c r="G5" s="9">
+        <v>374.44997499999999</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="16">
+        <v>1560</v>
+      </c>
+      <c r="L5" s="6">
+        <f t="shared" si="0"/>
+        <v>4.1661105732481358</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="E5" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="14">
-        <v>0</v>
-      </c>
-      <c r="G5" s="7">
-        <v>374.44997499999999</v>
-      </c>
-      <c r="H5" s="4">
-        <v>0</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="J5" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="K5" s="14">
-        <v>1560</v>
-      </c>
-      <c r="L5" s="3">
-        <f t="shared" si="0"/>
-        <v>4.1661105732481358</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" s="3" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="13" t="s">
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="16">
         <v>3</v>
       </c>
-      <c r="G6" s="7">
-        <v>374.44997499999999</v>
-      </c>
-      <c r="H6" s="4">
+      <c r="G6" s="9">
+        <v>374.44997499999999</v>
+      </c>
+      <c r="H6" s="7">
         <f t="shared" ref="H6:H29" si="1">F6/G6</f>
         <v>8.0117511024002611E-3</v>
       </c>
-      <c r="I6" s="12" t="s">
+      <c r="I6" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="J6" s="12" t="s">
+      <c r="J6" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="K6" s="14">
+      <c r="K6" s="16">
         <v>5</v>
       </c>
-      <c r="L6" s="14">
+      <c r="L6" s="16">
         <f t="shared" si="0"/>
         <v>1.3352918504000435E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="3" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="23" t="s">
-        <v>177</v>
-      </c>
-      <c r="B7" s="12" t="s">
+    <row r="7" spans="1:12" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B7" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="13" t="s">
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="16">
         <v>30</v>
       </c>
-      <c r="G7" s="7">
-        <v>374.44997499999999</v>
-      </c>
-      <c r="H7" s="4">
+      <c r="G7" s="9">
+        <v>374.44997499999999</v>
+      </c>
+      <c r="H7" s="7">
         <f t="shared" si="1"/>
         <v>8.0117511024002608E-2</v>
       </c>
-      <c r="I7" s="12" t="s">
+      <c r="I7" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="J7" s="12" t="s">
+      <c r="J7" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="K7" s="14">
+      <c r="K7" s="16">
         <v>1694</v>
       </c>
-      <c r="L7" s="14">
+      <c r="L7" s="16">
         <f t="shared" si="0"/>
         <v>4.5239687891553473</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="3" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="23" t="s">
-        <v>178</v>
-      </c>
-      <c r="B8" s="12" t="s">
+    <row r="8" spans="1:12" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B8" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="13" t="s">
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="16">
         <v>99</v>
       </c>
-      <c r="G8" s="7">
-        <v>374.44997499999999</v>
-      </c>
-      <c r="H8" s="4">
+      <c r="G8" s="9">
+        <v>374.44997499999999</v>
+      </c>
+      <c r="H8" s="7">
         <f t="shared" si="1"/>
         <v>0.26438778637920862</v>
       </c>
-      <c r="I8" s="12" t="s">
+      <c r="I8" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J8" s="12" t="s">
+      <c r="J8" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="K8" s="14">
+      <c r="K8" s="16">
         <v>1489</v>
       </c>
-      <c r="L8" s="14">
+      <c r="L8" s="16">
         <f t="shared" si="0"/>
         <v>3.9764991304913293</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="3" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="s">
-        <v>179</v>
-      </c>
-      <c r="B9" s="12" t="s">
+    <row r="9" spans="1:12" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B9" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="13" t="s">
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="16">
         <v>70</v>
       </c>
-      <c r="G9" s="7">
-        <v>374.44997499999999</v>
-      </c>
-      <c r="H9" s="4">
+      <c r="G9" s="9">
+        <v>374.44997499999999</v>
+      </c>
+      <c r="H9" s="7">
         <f t="shared" si="1"/>
         <v>0.18694085905600608</v>
       </c>
-      <c r="I9" s="12" t="s">
+      <c r="I9" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="J9" s="12" t="s">
+      <c r="J9" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="K9" s="14">
+      <c r="K9" s="16">
         <v>5005</v>
       </c>
-      <c r="L9" s="14">
+      <c r="L9" s="16">
         <f t="shared" si="0"/>
         <v>13.366271422504434</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="3" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="B10" s="12" t="s">
+    <row r="10" spans="1:12" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B10" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="13" t="s">
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10" s="16">
         <v>60</v>
       </c>
-      <c r="G10" s="7">
-        <v>374.44997499999999</v>
-      </c>
-      <c r="H10" s="4">
+      <c r="G10" s="9">
+        <v>374.44997499999999</v>
+      </c>
+      <c r="H10" s="7">
         <f t="shared" si="1"/>
         <v>0.16023502204800522</v>
       </c>
-      <c r="I10" s="12" t="s">
+      <c r="I10" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="J10" s="12" t="s">
+      <c r="J10" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="K10" s="14">
+      <c r="K10" s="16">
         <v>1157</v>
       </c>
-      <c r="L10" s="14">
+      <c r="L10" s="16">
         <f t="shared" si="0"/>
         <v>3.0898653418257007</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="3" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="23" t="s">
-        <v>181</v>
-      </c>
-      <c r="B11" s="12" t="s">
+    <row r="11" spans="1:12" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B11" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="13" t="s">
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="16">
         <v>73</v>
       </c>
-      <c r="G11" s="7">
-        <v>374.44997499999999</v>
-      </c>
-      <c r="H11" s="4">
+      <c r="G11" s="9">
+        <v>374.44997499999999</v>
+      </c>
+      <c r="H11" s="7">
         <f t="shared" si="1"/>
         <v>0.19495261015840634</v>
       </c>
-      <c r="I11" s="12" t="s">
+      <c r="I11" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="J11" s="12" t="s">
+      <c r="J11" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="K11" s="14">
+      <c r="K11" s="16">
         <v>2161</v>
       </c>
-      <c r="L11" s="14">
+      <c r="L11" s="16">
         <f t="shared" si="0"/>
         <v>5.7711313774289881</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="3" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="23" t="s">
-        <v>182</v>
-      </c>
-      <c r="B12" s="15" t="s">
+    <row r="12" spans="1:12" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="13" t="s">
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12" s="16">
         <v>11</v>
       </c>
-      <c r="G12" s="7">
-        <v>374.44997499999999</v>
-      </c>
-      <c r="H12" s="4">
+      <c r="G12" s="9">
+        <v>374.44997499999999</v>
+      </c>
+      <c r="H12" s="7">
         <f t="shared" si="1"/>
         <v>2.9376420708800956E-2</v>
       </c>
-      <c r="I12" s="12" t="s">
+      <c r="I12" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="J12" s="12" t="s">
+      <c r="J12" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="K12" s="14">
+      <c r="K12" s="16">
         <v>1696</v>
       </c>
-      <c r="L12" s="14">
+      <c r="L12" s="16">
         <f t="shared" si="0"/>
         <v>4.529309956556947</v>
       </c>
     </row>
-    <row r="13" spans="1:12" s="3" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="23" t="s">
-        <v>183</v>
-      </c>
-      <c r="B13" s="12" t="s">
+    <row r="13" spans="1:12" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B13" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="13" t="s">
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F13" s="16">
         <v>162</v>
       </c>
-      <c r="G13" s="7">
-        <v>374.44997499999999</v>
-      </c>
-      <c r="H13" s="4">
+      <c r="G13" s="9">
+        <v>374.44997499999999</v>
+      </c>
+      <c r="H13" s="7">
         <f t="shared" si="1"/>
         <v>0.43263455952961405</v>
       </c>
-      <c r="I13" s="12" t="s">
+      <c r="I13" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="J13" s="12" t="s">
+      <c r="J13" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="K13" s="14">
+      <c r="K13" s="16">
         <v>24367</v>
       </c>
-      <c r="L13" s="14">
+      <c r="L13" s="16">
         <f t="shared" si="0"/>
         <v>65.074113037395719</v>
       </c>
     </row>
-    <row r="14" spans="1:12" s="3" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="24" t="s">
-        <v>184</v>
-      </c>
-      <c r="B14" s="6" t="s">
+    <row r="14" spans="1:12" s="1" customFormat="1" ht="141" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="E14" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F14" s="16">
+      <c r="F14" s="17">
         <v>19</v>
       </c>
-      <c r="G14" s="7">
-        <v>374.44997499999999</v>
-      </c>
-      <c r="H14" s="9">
+      <c r="G14" s="9">
+        <v>374.44997499999999</v>
+      </c>
+      <c r="H14" s="11">
         <f t="shared" si="1"/>
         <v>5.0741090315201652E-2</v>
       </c>
-      <c r="I14" s="6" t="s">
+      <c r="I14" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="J14" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="J14" s="6" t="s">
+      <c r="K14" s="9">
+        <v>5431</v>
+      </c>
+      <c r="L14" s="9">
+        <f t="shared" si="0"/>
+        <v>14.503940079045272</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B15" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="K14" s="7">
-        <v>5431</v>
-      </c>
-      <c r="L14" s="7">
-        <f t="shared" si="0"/>
-        <v>14.503940079045272</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" s="3" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="B15" s="12" t="s">
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="F15" s="3">
+      <c r="F15" s="6">
         <v>132</v>
       </c>
-      <c r="G15" s="7">
-        <v>374.44997499999999</v>
-      </c>
-      <c r="H15" s="4">
+      <c r="G15" s="9">
+        <v>374.44997499999999</v>
+      </c>
+      <c r="H15" s="7">
         <f t="shared" si="1"/>
         <v>0.35251704850561144</v>
       </c>
-      <c r="I15" s="12" t="s">
+      <c r="I15" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="J15" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="J15" s="12" t="s">
+      <c r="K15" s="6">
+        <v>3726</v>
+      </c>
+      <c r="L15" s="6">
+        <f t="shared" si="0"/>
+        <v>9.9505948691811241</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B16" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="K15" s="3">
-        <v>3726</v>
-      </c>
-      <c r="L15" s="3">
-        <f t="shared" si="0"/>
-        <v>9.9505948691811241</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" s="3" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="B16" s="17" t="s">
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="F16" s="3">
+      <c r="F16" s="6">
         <v>195</v>
       </c>
-      <c r="G16" s="7">
-        <v>374.44997499999999</v>
-      </c>
-      <c r="H16" s="4">
+      <c r="G16" s="9">
+        <v>374.44997499999999</v>
+      </c>
+      <c r="H16" s="7">
         <f t="shared" si="1"/>
         <v>0.52076382165601698</v>
       </c>
-      <c r="I16" s="12" t="s">
+      <c r="I16" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="J16" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="J16" s="12" t="s">
+      <c r="K16" s="6">
+        <v>833</v>
+      </c>
+      <c r="L16" s="6">
+        <f t="shared" si="0"/>
+        <v>2.2245962227664724</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B17" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="K16" s="3">
-        <v>833</v>
-      </c>
-      <c r="L16" s="3">
-        <f t="shared" si="0"/>
-        <v>2.2245962227664724</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" s="3" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="23" t="s">
-        <v>187</v>
-      </c>
-      <c r="B17" s="12" t="s">
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="F17" s="3">
+      <c r="F17" s="6">
         <v>386</v>
       </c>
-      <c r="G17" s="7">
-        <v>374.44997499999999</v>
-      </c>
-      <c r="H17" s="4">
+      <c r="G17" s="9">
+        <v>374.44997499999999</v>
+      </c>
+      <c r="H17" s="7">
         <f t="shared" si="1"/>
         <v>1.0308453085088336</v>
       </c>
-      <c r="I17" s="12" t="s">
+      <c r="I17" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="J17" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="J17" s="12" t="s">
+      <c r="K17" s="6">
+        <v>5713</v>
+      </c>
+      <c r="L17" s="6">
+        <f t="shared" si="0"/>
+        <v>15.257044682670896</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B18" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="K17" s="3">
-        <v>5713</v>
-      </c>
-      <c r="L17" s="3">
-        <f t="shared" si="0"/>
-        <v>15.257044682670896</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" s="3" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="23" t="s">
-        <v>188</v>
-      </c>
-      <c r="B18" s="12" t="s">
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="F18" s="3">
+      <c r="F18" s="6">
         <v>182</v>
       </c>
-      <c r="G18" s="7">
-        <v>374.44997499999999</v>
-      </c>
-      <c r="H18" s="4">
+      <c r="G18" s="9">
+        <v>374.44997499999999</v>
+      </c>
+      <c r="H18" s="7">
         <f t="shared" si="1"/>
         <v>0.48604623354561582</v>
       </c>
-      <c r="I18" s="12" t="s">
+      <c r="I18" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="J18" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="J18" s="12" t="s">
+      <c r="K18" s="6">
+        <v>39163</v>
+      </c>
+      <c r="L18" s="6">
+        <f t="shared" si="0"/>
+        <v>104.58806947443381</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="B19" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="K18" s="3">
-        <v>39163</v>
-      </c>
-      <c r="L18" s="3">
-        <f t="shared" si="0"/>
-        <v>104.58806947443381</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" s="3" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="20" t="s">
-        <v>189</v>
-      </c>
-      <c r="B19" s="12" t="s">
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="F19" s="3">
+      <c r="F19" s="6">
         <v>37</v>
       </c>
-      <c r="G19" s="7">
-        <v>374.44997499999999</v>
-      </c>
-      <c r="H19" s="4">
+      <c r="G19" s="9">
+        <v>374.44997499999999</v>
+      </c>
+      <c r="H19" s="7">
         <f t="shared" si="1"/>
         <v>9.8811596929603215E-2</v>
       </c>
-      <c r="I19" s="12" t="s">
+      <c r="I19" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="J19" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="J19" s="12" t="s">
+      <c r="K19" s="6">
+        <v>1844</v>
+      </c>
+      <c r="L19" s="6">
+        <f t="shared" si="0"/>
+        <v>4.9245563442753602</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B20" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="K19" s="3">
-        <v>1844</v>
-      </c>
-      <c r="L19" s="3">
-        <f t="shared" si="0"/>
-        <v>4.9245563442753602</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" s="3" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="23" t="s">
-        <v>190</v>
-      </c>
-      <c r="B20" s="12" t="s">
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="F20" s="3">
+      <c r="F20" s="6">
         <v>99</v>
       </c>
-      <c r="G20" s="7">
-        <v>374.44997499999999</v>
-      </c>
-      <c r="H20" s="3">
+      <c r="G20" s="9">
+        <v>374.44997499999999</v>
+      </c>
+      <c r="H20" s="6">
         <f t="shared" si="1"/>
         <v>0.26438778637920862</v>
       </c>
-      <c r="I20" s="18" t="s">
+      <c r="I20" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="J20" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="J20" s="12" t="s">
+      <c r="K20" s="6">
+        <v>6215</v>
+      </c>
+      <c r="L20" s="6">
+        <f t="shared" si="0"/>
+        <v>16.597677700472541</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B21" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="K20" s="3">
-        <v>6215</v>
-      </c>
-      <c r="L20" s="3">
-        <f t="shared" si="0"/>
-        <v>16.597677700472541</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" s="3" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="B21" s="12" t="s">
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="F21" s="3">
+      <c r="F21" s="6">
         <v>526</v>
       </c>
-      <c r="G21" s="7">
-        <v>374.44997499999999</v>
-      </c>
-      <c r="H21" s="3">
+      <c r="G21" s="9">
+        <v>374.44997499999999</v>
+      </c>
+      <c r="H21" s="6">
         <f t="shared" si="1"/>
         <v>1.4047270266208458</v>
       </c>
-      <c r="I21" s="18" t="s">
+      <c r="I21" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="J21" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="J21" s="12" t="s">
+      <c r="K21" s="6">
+        <v>11009</v>
+      </c>
+      <c r="L21" s="6">
+        <f t="shared" si="0"/>
+        <v>29.400455962108158</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B22" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="K21" s="3">
-        <v>11009</v>
-      </c>
-      <c r="L21" s="3">
-        <f t="shared" si="0"/>
-        <v>29.400455962108158</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" s="3" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="23" t="s">
-        <v>192</v>
-      </c>
-      <c r="B22" s="12" t="s">
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="F22" s="3">
+      <c r="F22" s="6">
         <v>552</v>
       </c>
-      <c r="G22" s="7">
-        <v>374.44997499999999</v>
-      </c>
-      <c r="H22" s="3">
+      <c r="G22" s="9">
+        <v>374.44997499999999</v>
+      </c>
+      <c r="H22" s="6">
         <f t="shared" si="1"/>
         <v>1.4741622028416479</v>
       </c>
-      <c r="I22" s="18" t="s">
+      <c r="I22" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="J22" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="J22" s="12" t="s">
+      <c r="K22" s="6">
+        <v>9575</v>
+      </c>
+      <c r="L22" s="6">
+        <f t="shared" si="0"/>
+        <v>25.570838935160833</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B23" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="K22" s="3">
-        <v>9575</v>
-      </c>
-      <c r="L22" s="3">
-        <f t="shared" si="0"/>
-        <v>25.570838935160833</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" s="3" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="23" t="s">
-        <v>193</v>
-      </c>
-      <c r="B23" s="12" t="s">
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="F23" s="3">
+      <c r="F23" s="6">
         <v>335</v>
       </c>
-      <c r="G23" s="7">
-        <v>374.44997499999999</v>
-      </c>
-      <c r="H23" s="3">
+      <c r="G23" s="9">
+        <v>374.44997499999999</v>
+      </c>
+      <c r="H23" s="6">
         <f t="shared" si="1"/>
         <v>0.89464553976802907</v>
       </c>
-      <c r="I23" s="18" t="s">
+      <c r="I23" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="J23" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="J23" s="12" t="s">
+      <c r="K23" s="6">
+        <v>30215</v>
+      </c>
+      <c r="L23" s="6">
+        <f t="shared" si="0"/>
+        <v>80.691686519674619</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B24" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="K23" s="3">
-        <v>30215</v>
-      </c>
-      <c r="L23" s="3">
-        <f t="shared" si="0"/>
-        <v>80.691686519674619</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" s="3" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="B24" s="12" t="s">
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="F24" s="3">
+      <c r="F24" s="6">
         <v>8</v>
       </c>
-      <c r="G24" s="7">
-        <v>374.44997499999999</v>
-      </c>
-      <c r="H24" s="3">
+      <c r="G24" s="9">
+        <v>374.44997499999999</v>
+      </c>
+      <c r="H24" s="6">
         <f t="shared" si="1"/>
         <v>2.1364669606400696E-2</v>
       </c>
-      <c r="I24" s="18" t="s">
+      <c r="I24" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="J24" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="J24" s="12" t="s">
+      <c r="K24" s="6">
+        <v>172</v>
+      </c>
+      <c r="L24" s="6">
+        <f t="shared" si="0"/>
+        <v>0.45934039653761494</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B25" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="K24" s="3">
-        <v>172</v>
-      </c>
-      <c r="L24" s="3">
-        <f t="shared" si="0"/>
-        <v>0.45934039653761494</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" s="3" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="23" t="s">
-        <v>195</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12" t="s">
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25" s="6">
         <v>9</v>
       </c>
-      <c r="G25" s="7">
-        <v>374.44997499999999</v>
-      </c>
-      <c r="H25" s="3">
+      <c r="G25" s="9">
+        <v>374.44997499999999</v>
+      </c>
+      <c r="H25" s="6">
         <f t="shared" si="1"/>
         <v>2.4035253307200782E-2</v>
       </c>
-      <c r="I25" s="18" t="s">
+      <c r="I25" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="J25" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="J25" s="12" t="s">
+      <c r="K25" s="6">
+        <v>5040</v>
+      </c>
+      <c r="L25" s="6">
+        <f t="shared" si="0"/>
+        <v>13.459741852032439</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B26" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="K25" s="3">
-        <v>5040</v>
-      </c>
-      <c r="L25" s="3">
-        <f t="shared" si="0"/>
-        <v>13.459741852032439</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" s="3" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="B26" s="12" t="s">
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="F26" s="3">
+      <c r="F26" s="6">
         <v>92</v>
       </c>
-      <c r="G26" s="7">
-        <v>374.44997499999999</v>
-      </c>
-      <c r="H26" s="3">
+      <c r="G26" s="9">
+        <v>374.44997499999999</v>
+      </c>
+      <c r="H26" s="6">
         <f t="shared" si="1"/>
         <v>0.245693700473608</v>
       </c>
-      <c r="I26" s="18" t="s">
+      <c r="I26" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="J26" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="J26" s="12" t="s">
+      <c r="K26" s="6">
+        <v>380</v>
+      </c>
+      <c r="L26" s="6">
+        <f t="shared" si="0"/>
+        <v>1.0148218063040331</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B27" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="K26" s="3">
-        <v>380</v>
-      </c>
-      <c r="L26" s="3">
-        <f t="shared" si="0"/>
-        <v>1.0148218063040331</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" s="3" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="23" t="s">
-        <v>197</v>
-      </c>
-      <c r="B27" s="12" t="s">
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="F27" s="3">
+      <c r="F27" s="6">
         <v>2</v>
       </c>
-      <c r="G27" s="7">
-        <v>374.44997499999999</v>
-      </c>
-      <c r="H27" s="3">
+      <c r="G27" s="9">
+        <v>374.44997499999999</v>
+      </c>
+      <c r="H27" s="6">
         <f t="shared" si="1"/>
         <v>5.3411674016001741E-3</v>
       </c>
-      <c r="I27" s="18" t="s">
+      <c r="I27" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="J27" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="J27" s="12" t="s">
+      <c r="K27" s="6">
+        <v>48</v>
+      </c>
+      <c r="L27" s="6">
+        <f t="shared" si="0"/>
+        <v>0.12818801763840418</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B28" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="K27" s="3">
-        <v>48</v>
-      </c>
-      <c r="L27" s="3">
-        <f t="shared" si="0"/>
-        <v>0.12818801763840418</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" s="3" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="23" t="s">
-        <v>198</v>
-      </c>
-      <c r="B28" s="12" t="s">
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="F28" s="3">
+      <c r="F28" s="6">
         <v>724</v>
       </c>
-      <c r="G28" s="7">
-        <v>374.44997499999999</v>
-      </c>
-      <c r="H28" s="3">
+      <c r="G28" s="9">
+        <v>374.44997499999999</v>
+      </c>
+      <c r="H28" s="6">
         <f t="shared" si="1"/>
         <v>1.9335025993792629</v>
       </c>
-      <c r="I28" s="18" t="s">
+      <c r="I28" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="J28" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="J28" s="12" t="s">
+      <c r="K28" s="6">
+        <v>1622</v>
+      </c>
+      <c r="L28" s="6">
+        <f t="shared" si="0"/>
+        <v>4.3316867626977409</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B29" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="K28" s="3">
-        <v>1622</v>
-      </c>
-      <c r="L28" s="3">
-        <f t="shared" si="0"/>
-        <v>4.3316867626977409</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" s="3" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="23" t="s">
-        <v>199</v>
-      </c>
-      <c r="B29" s="12" t="s">
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="F29" s="3">
+      <c r="F29" s="6">
         <v>7</v>
       </c>
-      <c r="G29" s="7">
-        <v>374.44997499999999</v>
-      </c>
-      <c r="H29" s="3">
+      <c r="G29" s="9">
+        <v>374.44997499999999</v>
+      </c>
+      <c r="H29" s="6">
         <f t="shared" si="1"/>
         <v>1.8694085905600608E-2</v>
       </c>
-      <c r="I29" s="18" t="s">
+      <c r="I29" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="J29" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="J29" s="12" t="s">
+      <c r="K29" s="6">
+        <v>160</v>
+      </c>
+      <c r="L29" s="6">
+        <f t="shared" si="0"/>
+        <v>0.42729339212801393</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>213</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="E30" s="6">
+        <v>0</v>
+      </c>
+      <c r="F30" s="6">
+        <v>0</v>
+      </c>
+      <c r="G30" s="9">
+        <v>374.44997499999999</v>
+      </c>
+      <c r="H30" s="6">
+        <v>0</v>
+      </c>
+      <c r="I30" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="K29" s="3">
-        <v>160</v>
-      </c>
-      <c r="L29" s="3">
-        <f t="shared" si="0"/>
-        <v>0.42729339212801393</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" s="3" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="23" t="s">
+      <c r="J30" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="K30" s="6">
+        <v>199</v>
+      </c>
+      <c r="L30" s="6">
+        <f t="shared" si="0"/>
+        <v>0.53144615645921733</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="20" t="s">
         <v>200</v>
       </c>
-      <c r="E30" s="3">
-        <v>0</v>
-      </c>
-      <c r="F30" s="3">
-        <v>0</v>
-      </c>
-      <c r="G30" s="7">
-        <v>374.44997499999999</v>
-      </c>
-      <c r="H30" s="3">
-        <v>0</v>
-      </c>
-      <c r="I30" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="J30" s="17" t="s">
+      <c r="B31" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="K30" s="3">
-        <v>199</v>
-      </c>
-      <c r="L30" s="3">
-        <f t="shared" si="0"/>
-        <v>0.53144615645921733</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" s="3" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="25" t="s">
-        <v>201</v>
-      </c>
-      <c r="B31" s="12" t="s">
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="F31" s="3">
+      <c r="F31" s="6">
         <v>132</v>
       </c>
-      <c r="G31" s="7">
-        <v>374.44997499999999</v>
-      </c>
-      <c r="H31" s="4">
+      <c r="G31" s="9">
+        <v>374.44997499999999</v>
+      </c>
+      <c r="H31" s="7">
         <f t="shared" ref="H31:H44" si="2">F31/G31</f>
         <v>0.35251704850561144</v>
       </c>
-      <c r="I31" s="12" t="s">
+      <c r="I31" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="J31" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="J31" s="12" t="s">
+      <c r="K31" s="6">
+        <v>1049</v>
+      </c>
+      <c r="L31" s="6">
+        <f t="shared" si="0"/>
+        <v>2.8014423021392911</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B32" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="K31" s="3">
-        <v>1049</v>
-      </c>
-      <c r="L31" s="3">
-        <f t="shared" si="0"/>
-        <v>2.8014423021392911</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" s="3" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="23" t="s">
-        <v>202</v>
-      </c>
-      <c r="B32" s="12" t="s">
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="F32" s="3">
+      <c r="F32" s="6">
         <v>3</v>
       </c>
-      <c r="G32" s="7">
-        <v>374.44997499999999</v>
-      </c>
-      <c r="H32" s="4">
+      <c r="G32" s="9">
+        <v>374.44997499999999</v>
+      </c>
+      <c r="H32" s="7">
         <f t="shared" si="2"/>
         <v>8.0117511024002611E-3</v>
       </c>
-      <c r="I32" s="12" t="s">
+      <c r="I32" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="J32" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="J32" s="12" t="s">
+      <c r="K32" s="6">
+        <v>263</v>
+      </c>
+      <c r="L32" s="6">
+        <f t="shared" si="0"/>
+        <v>0.7023635133104229</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="B33" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="K32" s="3">
-        <v>263</v>
-      </c>
-      <c r="L32" s="3">
-        <f t="shared" si="0"/>
-        <v>0.7023635133104229</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" s="3" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="25" t="s">
-        <v>203</v>
-      </c>
-      <c r="B33" s="12" t="s">
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="F33" s="3">
+      <c r="F33" s="6">
         <v>4</v>
       </c>
-      <c r="G33" s="7">
-        <v>374.44997499999999</v>
-      </c>
-      <c r="H33" s="4">
+      <c r="G33" s="9">
+        <v>374.44997499999999</v>
+      </c>
+      <c r="H33" s="7">
         <f t="shared" si="2"/>
         <v>1.0682334803200348E-2</v>
       </c>
-      <c r="I33" s="12" t="s">
+      <c r="I33" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="J33" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="J33" s="12" t="s">
+      <c r="K33" s="6">
+        <v>411</v>
+      </c>
+      <c r="L33" s="6">
+        <f t="shared" si="0"/>
+        <v>1.0976099010288356</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="B34" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="K33" s="3">
-        <v>411</v>
-      </c>
-      <c r="L33" s="3">
-        <f t="shared" si="0"/>
-        <v>1.0976099010288356</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" s="3" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="25" t="s">
-        <v>204</v>
-      </c>
-      <c r="B34" s="12" t="s">
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="F34" s="3">
+      <c r="F34" s="6">
         <v>24</v>
       </c>
-      <c r="G34" s="7">
-        <v>374.44997499999999</v>
-      </c>
-      <c r="H34" s="4">
+      <c r="G34" s="9">
+        <v>374.44997499999999</v>
+      </c>
+      <c r="H34" s="7">
         <f t="shared" si="2"/>
         <v>6.4094008819202089E-2</v>
       </c>
-      <c r="I34" s="12" t="s">
+      <c r="I34" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="J34" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="J34" s="12" t="s">
+      <c r="K34" s="6">
+        <v>1048</v>
+      </c>
+      <c r="L34" s="6">
+        <f t="shared" si="0"/>
+        <v>2.7987717184384913</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B35" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="K34" s="3">
-        <v>1048</v>
-      </c>
-      <c r="L34" s="3">
-        <f t="shared" si="0"/>
-        <v>2.7987717184384913</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" s="3" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="B35" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="F35" s="3">
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="F35" s="6">
         <v>4</v>
       </c>
-      <c r="G35" s="7">
-        <v>374.44997499999999</v>
-      </c>
-      <c r="H35" s="4">
+      <c r="G35" s="9">
+        <v>374.44997499999999</v>
+      </c>
+      <c r="H35" s="7">
         <f t="shared" si="2"/>
         <v>1.0682334803200348E-2</v>
       </c>
-      <c r="I35" s="12" t="s">
+      <c r="I35" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="J35" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="J35" s="12" t="s">
+      <c r="K35" s="6">
+        <v>311</v>
+      </c>
+      <c r="L35" s="6">
+        <f t="shared" si="0"/>
+        <v>0.83055153094882705</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="B36" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="K35" s="3">
-        <v>311</v>
-      </c>
-      <c r="L35" s="3">
-        <f t="shared" si="0"/>
-        <v>0.83055153094882705</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" s="3" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="25" t="s">
-        <v>177</v>
-      </c>
-      <c r="B36" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12" t="s">
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="F36" s="3">
+      <c r="F36" s="6">
         <v>30</v>
       </c>
-      <c r="G36" s="7">
-        <v>374.44997499999999</v>
-      </c>
-      <c r="H36" s="4">
+      <c r="G36" s="9">
+        <v>374.44997499999999</v>
+      </c>
+      <c r="H36" s="7">
         <f t="shared" si="2"/>
         <v>8.0117511024002608E-2</v>
       </c>
-      <c r="I36" s="12" t="s">
+      <c r="I36" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="J36" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="J36" s="12" t="s">
+      <c r="K36" s="6">
+        <v>1694</v>
+      </c>
+      <c r="L36" s="6">
+        <f t="shared" si="0"/>
+        <v>4.5239687891553473</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="B37" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="K36" s="3">
-        <v>1694</v>
-      </c>
-      <c r="L36" s="3">
-        <f t="shared" si="0"/>
-        <v>4.5239687891553473</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" s="3" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="25" t="s">
-        <v>205</v>
-      </c>
-      <c r="B37" s="12" t="s">
+      <c r="C37" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="D37" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="E37" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="C37" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="D37" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="E37" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="F37" s="3">
+      <c r="F37" s="6">
         <v>472</v>
       </c>
-      <c r="G37" s="7">
-        <v>374.44997499999999</v>
-      </c>
-      <c r="H37" s="4">
+      <c r="G37" s="9">
+        <v>374.44997499999999</v>
+      </c>
+      <c r="H37" s="7">
         <f t="shared" si="2"/>
         <v>1.260515506777641</v>
       </c>
-      <c r="I37" s="12" t="s">
+      <c r="I37" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="J37" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="J37" s="12" t="s">
+      <c r="K37" s="6">
+        <v>13751</v>
+      </c>
+      <c r="L37" s="6">
+        <f t="shared" si="0"/>
+        <v>36.723196469701996</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="B38" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="K37" s="3">
-        <v>13751</v>
-      </c>
-      <c r="L37" s="3">
-        <f t="shared" si="0"/>
-        <v>36.723196469701996</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" s="3" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="25" t="s">
-        <v>206</v>
-      </c>
-      <c r="B38" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="F38" s="3">
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="F38" s="6">
         <v>37</v>
       </c>
-      <c r="G38" s="7">
-        <v>374.44997499999999</v>
-      </c>
-      <c r="H38" s="4">
+      <c r="G38" s="9">
+        <v>374.44997499999999</v>
+      </c>
+      <c r="H38" s="7">
         <f t="shared" si="2"/>
         <v>9.8811596929603215E-2</v>
       </c>
-      <c r="I38" s="12" t="s">
+      <c r="I38" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="J38" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="J38" s="12" t="s">
+      <c r="K38" s="6">
+        <v>22993</v>
+      </c>
+      <c r="L38" s="6">
+        <f t="shared" si="0"/>
+        <v>61.4047310324964</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="K38" s="3">
-        <v>22993</v>
-      </c>
-      <c r="L38" s="3">
-        <f t="shared" si="0"/>
-        <v>61.4047310324964</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" s="3" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="25" t="s">
+      <c r="B39" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="B39" s="12" t="s">
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="F39" s="3">
+      <c r="F39" s="6">
         <v>23</v>
       </c>
-      <c r="G39" s="7">
-        <v>374.44997499999999</v>
-      </c>
-      <c r="H39" s="4">
+      <c r="G39" s="9">
+        <v>374.44997499999999</v>
+      </c>
+      <c r="H39" s="7">
         <f t="shared" si="2"/>
         <v>6.1423425118402E-2</v>
       </c>
-      <c r="I39" s="12" t="s">
+      <c r="I39" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="J39" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="J39" s="12" t="s">
+      <c r="K39" s="6">
+        <v>43871</v>
+      </c>
+      <c r="L39" s="6">
+        <f t="shared" si="0"/>
+        <v>117.16117753780061</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="K39" s="3">
-        <v>43871</v>
-      </c>
-      <c r="L39" s="3">
-        <f t="shared" si="0"/>
-        <v>117.16117753780061</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" s="3" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="25" t="s">
+      <c r="B40" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="B40" s="12" t="s">
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="F40" s="3">
+      <c r="F40" s="6">
         <v>32</v>
       </c>
-      <c r="G40" s="19">
-        <v>374.44997499999999</v>
-      </c>
-      <c r="H40" s="4">
+      <c r="G40" s="21">
+        <v>374.44997499999999</v>
+      </c>
+      <c r="H40" s="7">
         <f t="shared" si="2"/>
         <v>8.5458678425602785E-2</v>
       </c>
-      <c r="I40" s="12" t="s">
+      <c r="I40" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="J40" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="J40" s="12" t="s">
+      <c r="K40" s="6">
+        <v>7036</v>
+      </c>
+      <c r="L40" s="6">
+        <f t="shared" si="0"/>
+        <v>18.790226918829411</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="K40" s="3">
-        <v>7036</v>
-      </c>
-      <c r="L40" s="3">
-        <f t="shared" si="0"/>
-        <v>18.790226918829411</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" s="3" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="25" t="s">
+      <c r="B41" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="B41" s="12" t="s">
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="F41" s="3">
+      <c r="F41" s="6">
         <v>26</v>
       </c>
-      <c r="G41" s="19">
-        <v>374.44997499999999</v>
-      </c>
-      <c r="H41" s="4">
+      <c r="G41" s="21">
+        <v>374.44997499999999</v>
+      </c>
+      <c r="H41" s="7">
         <f t="shared" si="2"/>
         <v>6.9435176220802253E-2</v>
       </c>
-      <c r="I41" s="12" t="s">
+      <c r="I41" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="J41" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="J41" s="12" t="s">
+      <c r="K41" s="6">
+        <v>7149</v>
+      </c>
+      <c r="L41" s="6">
+        <f t="shared" si="0"/>
+        <v>19.092002877019823</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="K41" s="3">
-        <v>7149</v>
-      </c>
-      <c r="L41" s="3">
-        <f t="shared" si="0"/>
-        <v>19.092002877019823</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" s="3" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="23" t="s">
+      <c r="B42" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="B42" s="12" t="s">
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="F42" s="3">
+      <c r="F42" s="6">
         <v>178</v>
       </c>
-      <c r="G42" s="19">
-        <v>374.44997499999999</v>
-      </c>
-      <c r="H42" s="4">
+      <c r="G42" s="21">
+        <v>374.44997499999999</v>
+      </c>
+      <c r="H42" s="7">
         <f t="shared" si="2"/>
         <v>0.47536389874241547</v>
       </c>
-      <c r="I42" s="12" t="s">
+      <c r="I42" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="J42" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="J42" s="12" t="s">
+      <c r="K42" s="6">
+        <v>4096</v>
+      </c>
+      <c r="L42" s="6">
+        <f t="shared" si="0"/>
+        <v>10.938710838477157</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="K42" s="3">
-        <v>4096</v>
-      </c>
-      <c r="L42" s="3">
-        <f t="shared" si="0"/>
-        <v>10.938710838477157</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" s="3" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="23" t="s">
+      <c r="B43" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="B43" s="12" t="s">
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="F43" s="3">
+      <c r="F43" s="6">
         <v>17</v>
       </c>
-      <c r="G43" s="19">
-        <v>374.44997499999999</v>
-      </c>
-      <c r="H43" s="4">
+      <c r="G43" s="21">
+        <v>374.44997499999999</v>
+      </c>
+      <c r="H43" s="7">
         <f t="shared" si="2"/>
         <v>4.5399922913601475E-2</v>
       </c>
-      <c r="I43" s="12" t="s">
+      <c r="I43" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="J43" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="J43" s="12" t="s">
+      <c r="K43" s="6">
+        <v>1442</v>
+      </c>
+      <c r="L43" s="6">
+        <f t="shared" si="0"/>
+        <v>3.8509816965537254</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="K43" s="3">
-        <v>1442</v>
-      </c>
-      <c r="L43" s="3">
-        <f t="shared" si="0"/>
-        <v>3.8509816965537254</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" s="3" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="25" t="s">
+      <c r="B44" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="B44" s="12" t="s">
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="F44" s="3">
+      <c r="F44" s="6">
         <v>1057</v>
       </c>
-      <c r="G44" s="19">
-        <v>374.44997499999999</v>
-      </c>
-      <c r="H44" s="4">
+      <c r="G44" s="21">
+        <v>374.44997499999999</v>
+      </c>
+      <c r="H44" s="7">
         <f t="shared" si="2"/>
         <v>2.8228069717456918</v>
       </c>
-      <c r="I44" s="12" t="s">
+      <c r="I44" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="J44" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="J44" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="K44" s="3">
+      <c r="K44" s="6">
         <v>86285</v>
       </c>
-      <c r="L44" s="3">
+      <c r="L44" s="6">
         <f t="shared" si="0"/>
         <v>230.43131462353548</v>
       </c>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tosha\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3F710F2-6E51-495B-9F1B-CF2BD7AEFE76}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCCD2E00-18F3-40E3-8415-23E867E01528}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21165" windowHeight="9555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,13 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="214">
-  <si>
-    <t xml:space="preserve">Таить
-Смеяться
-молвить
-</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="216">
   <si>
     <t>85 документов
 91 вхождение</t>
@@ -1840,12 +1834,38 @@
   <si>
     <t>Отсутствуют</t>
   </si>
+  <si>
+    <t>Поэтический: смеяться, роптать, сказать, молвить
+Общий корпус: жаловаться, сказать, обижать</t>
+  </si>
+  <si>
+    <t>И. А. Бродский. «Сын! Если я не мертв, то потому...» (1967)
+Грех спрашивать с разрушенных орбит!
+Но лучше мне кривиться в укоризне,
+чем быть тобой неузнанным при жизни.
+Услышь меня, отец твой не убит.
+И. А. Крылов. Откупщик и сапожник : 
+«Богатый Откупщик в хоромах пышных жил...» (1811)
+«На Бога грех роптать, и что ж за чудо?
+Работою завален я всегда;
+Хозяйка у меня добра и молода:
+А с доброю женой, кто этого не знает,
+Живется как-то веселей».
+Л. Н. Трефолев. На родине русского театра : «Собрались в избе ребятушки...» (1900)
+Не всегда же быть вам детками, ―
+Возмужаете! Тогда
+И посмейтесь… Но над предками
+Грех смеяться, господа!</t>
+  </si>
+  <si>
+    <t>Конструкция непопулярна для поэтического подкорпуса. В общем корпусе употребима нормально. Скорее всего, это связано с тем, что её использование предполагает какое-то повествование, которое нехарактерно для поэзии.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1855,14 +1875,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF212529"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <i/>
       <sz val="10"/>
       <color rgb="FF212529"/>
       <name val="Times New Roman"/>
@@ -1942,7 +1954,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1954,60 +1966,57 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -2292,8 +2301,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2307,1592 +2316,1596 @@
     <col min="10" max="10" width="41.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="346.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="B1" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="6">
+      <c r="F1" s="5">
         <v>71</v>
       </c>
-      <c r="G1" s="6">
-        <v>374.44997499999999</v>
-      </c>
-      <c r="H1" s="7">
+      <c r="G1" s="5">
+        <v>374.44997499999999</v>
+      </c>
+      <c r="H1" s="6">
         <f>F1/G1</f>
         <v>0.18961144275680616</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K1" s="6">
+      <c r="K1" s="5">
         <v>1504</v>
       </c>
-      <c r="L1" s="6">
+      <c r="L1" s="5">
         <f>K1/G1</f>
         <v>4.0165578860033309</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="9">
+      <c r="A2" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="8">
         <v>2</v>
       </c>
-      <c r="G2" s="9">
-        <v>374.44997499999999</v>
-      </c>
-      <c r="H2" s="11">
+      <c r="G2" s="8">
+        <v>374.44997499999999</v>
+      </c>
+      <c r="H2" s="10">
         <f>F2/G2</f>
         <v>5.3411674016001741E-3</v>
       </c>
-      <c r="I2" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9">
+      <c r="I2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8">
         <v>3</v>
       </c>
-      <c r="L2" s="9">
+      <c r="L2" s="8">
         <f t="shared" ref="L2:L44" si="0">K2/G2</f>
         <v>8.0117511024002611E-3</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="B3" s="12" t="s">
+      <c r="A3" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="9">
+      <c r="F3" s="8">
         <v>70</v>
       </c>
-      <c r="G3" s="9">
-        <v>374.44997499999999</v>
-      </c>
-      <c r="H3" s="11">
+      <c r="G3" s="8">
+        <v>374.44997499999999</v>
+      </c>
+      <c r="H3" s="10">
         <f>F3/G3</f>
         <v>0.18694085905600608</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="K3" s="8">
+        <v>1041</v>
+      </c>
+      <c r="L3" s="8">
+        <f t="shared" si="0"/>
+        <v>2.7800776325328904</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="9">
-        <v>1041</v>
-      </c>
-      <c r="L3" s="9">
-        <f t="shared" si="0"/>
-        <v>2.7800776325328904</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="9">
+      <c r="F4" s="8">
         <v>152</v>
       </c>
-      <c r="G4" s="9">
-        <v>374.44997499999999</v>
-      </c>
-      <c r="H4" s="11">
+      <c r="G4" s="8">
+        <v>374.44997499999999</v>
+      </c>
+      <c r="H4" s="10">
         <f>F4/G4</f>
         <v>0.40592872252161322</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8">
+        <v>2489</v>
+      </c>
+      <c r="L4" s="8">
+        <f t="shared" si="0"/>
+        <v>6.6470828312914163</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="E5" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9">
-        <v>2489</v>
-      </c>
-      <c r="L4" s="9">
-        <f t="shared" si="0"/>
-        <v>6.6470828312914163</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>208</v>
-      </c>
-      <c r="E5" s="15" t="s">
+      <c r="F5" s="15">
+        <v>0</v>
+      </c>
+      <c r="G5" s="8">
+        <v>374.44997499999999</v>
+      </c>
+      <c r="H5" s="6">
+        <v>0</v>
+      </c>
+      <c r="I5" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="16">
-        <v>0</v>
-      </c>
-      <c r="G5" s="9">
-        <v>374.44997499999999</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="14" t="s">
+      <c r="J5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="K5" s="16">
+      <c r="K5" s="15">
         <v>1560</v>
       </c>
-      <c r="L5" s="6">
+      <c r="L5" s="5">
         <f t="shared" si="0"/>
         <v>4.1661105732481358</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="B6" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="16">
+      <c r="F6" s="15">
         <v>3</v>
       </c>
-      <c r="G6" s="9">
-        <v>374.44997499999999</v>
-      </c>
-      <c r="H6" s="7">
+      <c r="G6" s="8">
+        <v>374.44997499999999</v>
+      </c>
+      <c r="H6" s="6">
         <f t="shared" ref="H6:H29" si="1">F6/G6</f>
         <v>8.0117511024002611E-3</v>
       </c>
-      <c r="I6" s="14" t="s">
+      <c r="I6" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="J6" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="K6" s="16">
+      <c r="K6" s="15">
         <v>5</v>
       </c>
-      <c r="L6" s="16">
+      <c r="L6" s="15">
         <f t="shared" si="0"/>
         <v>1.3352918504000435E-2</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="B7" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="16">
+      <c r="F7" s="15">
         <v>30</v>
       </c>
-      <c r="G7" s="9">
-        <v>374.44997499999999</v>
-      </c>
-      <c r="H7" s="7">
+      <c r="G7" s="8">
+        <v>374.44997499999999</v>
+      </c>
+      <c r="H7" s="6">
         <f t="shared" si="1"/>
         <v>8.0117511024002608E-2</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="I7" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="J7" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="K7" s="16">
+      <c r="K7" s="15">
         <v>1694</v>
       </c>
-      <c r="L7" s="16">
+      <c r="L7" s="15">
         <f t="shared" si="0"/>
         <v>4.5239687891553473</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="B8" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="16">
+      <c r="F8" s="15">
         <v>99</v>
       </c>
-      <c r="G8" s="9">
-        <v>374.44997499999999</v>
-      </c>
-      <c r="H8" s="7">
+      <c r="G8" s="8">
+        <v>374.44997499999999</v>
+      </c>
+      <c r="H8" s="6">
         <f t="shared" si="1"/>
         <v>0.26438778637920862</v>
       </c>
-      <c r="I8" s="14" t="s">
+      <c r="I8" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="J8" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="K8" s="16">
+      <c r="K8" s="15">
         <v>1489</v>
       </c>
-      <c r="L8" s="16">
+      <c r="L8" s="15">
         <f t="shared" si="0"/>
         <v>3.9764991304913293</v>
       </c>
     </row>
     <row r="9" spans="1:12" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="B9" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="16">
+      <c r="F9" s="15">
         <v>70</v>
       </c>
-      <c r="G9" s="9">
-        <v>374.44997499999999</v>
-      </c>
-      <c r="H9" s="7">
+      <c r="G9" s="8">
+        <v>374.44997499999999</v>
+      </c>
+      <c r="H9" s="6">
         <f t="shared" si="1"/>
         <v>0.18694085905600608</v>
       </c>
-      <c r="I9" s="14" t="s">
+      <c r="I9" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="J9" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="J9" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="K9" s="16">
+      <c r="K9" s="15">
         <v>5005</v>
       </c>
-      <c r="L9" s="16">
+      <c r="L9" s="15">
         <f t="shared" si="0"/>
         <v>13.366271422504434</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="B10" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="16">
+      <c r="F10" s="15">
         <v>60</v>
       </c>
-      <c r="G10" s="9">
-        <v>374.44997499999999</v>
-      </c>
-      <c r="H10" s="7">
+      <c r="G10" s="8">
+        <v>374.44997499999999</v>
+      </c>
+      <c r="H10" s="6">
         <f t="shared" si="1"/>
         <v>0.16023502204800522</v>
       </c>
-      <c r="I10" s="14" t="s">
+      <c r="I10" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="J10" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="K10" s="16">
+      <c r="K10" s="15">
         <v>1157</v>
       </c>
-      <c r="L10" s="16">
+      <c r="L10" s="15">
         <f t="shared" si="0"/>
         <v>3.0898653418257007</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="B11" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="16">
+      <c r="F11" s="15">
         <v>73</v>
       </c>
-      <c r="G11" s="9">
-        <v>374.44997499999999</v>
-      </c>
-      <c r="H11" s="7">
+      <c r="G11" s="8">
+        <v>374.44997499999999</v>
+      </c>
+      <c r="H11" s="6">
         <f t="shared" si="1"/>
         <v>0.19495261015840634</v>
       </c>
-      <c r="I11" s="14" t="s">
+      <c r="I11" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J11" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="J11" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="K11" s="16">
+      <c r="K11" s="15">
         <v>2161</v>
       </c>
-      <c r="L11" s="16">
+      <c r="L11" s="15">
         <f t="shared" si="0"/>
         <v>5.7711313774289881</v>
       </c>
     </row>
     <row r="12" spans="1:12" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="F12" s="16">
+      <c r="E12" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="15">
         <v>11</v>
       </c>
-      <c r="G12" s="9">
-        <v>374.44997499999999</v>
-      </c>
-      <c r="H12" s="7">
+      <c r="G12" s="8">
+        <v>374.44997499999999</v>
+      </c>
+      <c r="H12" s="6">
         <f t="shared" si="1"/>
         <v>2.9376420708800956E-2</v>
       </c>
-      <c r="I12" s="14" t="s">
+      <c r="I12" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="J12" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="J12" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="K12" s="16">
+      <c r="K12" s="15">
         <v>1696</v>
       </c>
-      <c r="L12" s="16">
+      <c r="L12" s="15">
         <f t="shared" si="0"/>
         <v>4.529309956556947</v>
       </c>
     </row>
     <row r="13" spans="1:12" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="B13" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="F13" s="16">
+      <c r="F13" s="15">
         <v>162</v>
       </c>
-      <c r="G13" s="9">
-        <v>374.44997499999999</v>
-      </c>
-      <c r="H13" s="7">
+      <c r="G13" s="8">
+        <v>374.44997499999999</v>
+      </c>
+      <c r="H13" s="6">
         <f t="shared" si="1"/>
         <v>0.43263455952961405</v>
       </c>
-      <c r="I13" s="14" t="s">
+      <c r="I13" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J13" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="J13" s="14" t="s">
+      <c r="K13" s="15">
+        <v>24367</v>
+      </c>
+      <c r="L13" s="15">
+        <f t="shared" si="0"/>
+        <v>65.074113037395719</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="1" customFormat="1" ht="141" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="E14" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="K13" s="16">
-        <v>24367</v>
-      </c>
-      <c r="L13" s="16">
-        <f t="shared" si="0"/>
-        <v>65.074113037395719</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" s="1" customFormat="1" ht="141" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
-        <v>183</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="F14" s="17">
+      <c r="F14" s="16">
         <v>19</v>
       </c>
-      <c r="G14" s="9">
-        <v>374.44997499999999</v>
-      </c>
-      <c r="H14" s="11">
+      <c r="G14" s="8">
+        <v>374.44997499999999</v>
+      </c>
+      <c r="H14" s="10">
         <f t="shared" si="1"/>
         <v>5.0741090315201652E-2</v>
       </c>
-      <c r="I14" s="8" t="s">
+      <c r="I14" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="J14" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="K14" s="9">
+      <c r="K14" s="8">
         <v>5431</v>
       </c>
-      <c r="L14" s="9">
+      <c r="L14" s="8">
         <f t="shared" si="0"/>
         <v>14.503940079045272</v>
       </c>
     </row>
     <row r="15" spans="1:12" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="B15" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="F15" s="6">
+      <c r="F15" s="5">
         <v>132</v>
       </c>
-      <c r="G15" s="9">
-        <v>374.44997499999999</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="G15" s="8">
+        <v>374.44997499999999</v>
+      </c>
+      <c r="H15" s="6">
         <f t="shared" si="1"/>
         <v>0.35251704850561144</v>
       </c>
-      <c r="I15" s="14" t="s">
+      <c r="I15" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="J15" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="J15" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="K15" s="6">
+      <c r="K15" s="5">
         <v>3726</v>
       </c>
-      <c r="L15" s="6">
+      <c r="L15" s="5">
         <f t="shared" si="0"/>
         <v>9.9505948691811241</v>
       </c>
     </row>
     <row r="16" spans="1:12" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="B16" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="F16" s="6">
+      <c r="F16" s="5">
         <v>195</v>
       </c>
-      <c r="G16" s="9">
-        <v>374.44997499999999</v>
-      </c>
-      <c r="H16" s="7">
+      <c r="G16" s="8">
+        <v>374.44997499999999</v>
+      </c>
+      <c r="H16" s="6">
         <f t="shared" si="1"/>
         <v>0.52076382165601698</v>
       </c>
-      <c r="I16" s="14" t="s">
+      <c r="I16" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="J16" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="J16" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="K16" s="6">
+      <c r="K16" s="5">
         <v>833</v>
       </c>
-      <c r="L16" s="6">
+      <c r="L16" s="5">
         <f t="shared" si="0"/>
         <v>2.2245962227664724</v>
       </c>
     </row>
     <row r="17" spans="1:12" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="B17" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="F17" s="6">
+      <c r="F17" s="5">
         <v>386</v>
       </c>
-      <c r="G17" s="9">
-        <v>374.44997499999999</v>
-      </c>
-      <c r="H17" s="7">
+      <c r="G17" s="8">
+        <v>374.44997499999999</v>
+      </c>
+      <c r="H17" s="6">
         <f t="shared" si="1"/>
         <v>1.0308453085088336</v>
       </c>
-      <c r="I17" s="14" t="s">
+      <c r="I17" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="J17" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="J17" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="K17" s="6">
+      <c r="K17" s="5">
         <v>5713</v>
       </c>
-      <c r="L17" s="6">
+      <c r="L17" s="5">
         <f t="shared" si="0"/>
         <v>15.257044682670896</v>
       </c>
     </row>
     <row r="18" spans="1:12" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="B18" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="F18" s="6">
+      <c r="F18" s="5">
         <v>182</v>
       </c>
-      <c r="G18" s="9">
-        <v>374.44997499999999</v>
-      </c>
-      <c r="H18" s="7">
+      <c r="G18" s="8">
+        <v>374.44997499999999</v>
+      </c>
+      <c r="H18" s="6">
         <f t="shared" si="1"/>
         <v>0.48604623354561582</v>
       </c>
-      <c r="I18" s="14" t="s">
+      <c r="I18" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="J18" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="J18" s="14" t="s">
+      <c r="K18" s="5">
+        <v>39163</v>
+      </c>
+      <c r="L18" s="5">
+        <f t="shared" si="0"/>
+        <v>104.58806947443381</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="B19" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="K18" s="6">
-        <v>39163</v>
-      </c>
-      <c r="L18" s="6">
-        <f t="shared" si="0"/>
-        <v>104.58806947443381</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="B19" s="14" t="s">
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="F19" s="6">
+      <c r="F19" s="5">
         <v>37</v>
       </c>
-      <c r="G19" s="9">
-        <v>374.44997499999999</v>
-      </c>
-      <c r="H19" s="7">
+      <c r="G19" s="8">
+        <v>374.44997499999999</v>
+      </c>
+      <c r="H19" s="6">
         <f t="shared" si="1"/>
         <v>9.8811596929603215E-2</v>
       </c>
-      <c r="I19" s="14" t="s">
+      <c r="I19" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="J19" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="J19" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="K19" s="6">
+      <c r="K19" s="5">
         <v>1844</v>
       </c>
-      <c r="L19" s="6">
+      <c r="L19" s="5">
         <f t="shared" si="0"/>
         <v>4.9245563442753602</v>
       </c>
     </row>
     <row r="20" spans="1:12" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="B20" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="F20" s="6">
+      <c r="F20" s="5">
         <v>99</v>
       </c>
-      <c r="G20" s="9">
-        <v>374.44997499999999</v>
-      </c>
-      <c r="H20" s="6">
+      <c r="G20" s="8">
+        <v>374.44997499999999</v>
+      </c>
+      <c r="H20" s="5">
         <f t="shared" si="1"/>
         <v>0.26438778637920862</v>
       </c>
-      <c r="I20" s="19" t="s">
+      <c r="I20" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="J20" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="J20" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="K20" s="6">
+      <c r="K20" s="5">
         <v>6215</v>
       </c>
-      <c r="L20" s="6">
+      <c r="L20" s="5">
         <f t="shared" si="0"/>
         <v>16.597677700472541</v>
       </c>
     </row>
     <row r="21" spans="1:12" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="B21" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="F21" s="6">
+      <c r="F21" s="5">
         <v>526</v>
       </c>
-      <c r="G21" s="9">
-        <v>374.44997499999999</v>
-      </c>
-      <c r="H21" s="6">
+      <c r="G21" s="8">
+        <v>374.44997499999999</v>
+      </c>
+      <c r="H21" s="5">
         <f t="shared" si="1"/>
         <v>1.4047270266208458</v>
       </c>
-      <c r="I21" s="19" t="s">
+      <c r="I21" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="J21" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="J21" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="K21" s="6">
+      <c r="K21" s="5">
         <v>11009</v>
       </c>
-      <c r="L21" s="6">
+      <c r="L21" s="5">
         <f t="shared" si="0"/>
         <v>29.400455962108158</v>
       </c>
     </row>
     <row r="22" spans="1:12" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="B22" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="F22" s="6">
+      <c r="F22" s="5">
         <v>552</v>
       </c>
-      <c r="G22" s="9">
-        <v>374.44997499999999</v>
-      </c>
-      <c r="H22" s="6">
+      <c r="G22" s="8">
+        <v>374.44997499999999</v>
+      </c>
+      <c r="H22" s="5">
         <f t="shared" si="1"/>
         <v>1.4741622028416479</v>
       </c>
-      <c r="I22" s="19" t="s">
+      <c r="I22" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="J22" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="J22" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="K22" s="6">
+      <c r="K22" s="5">
         <v>9575</v>
       </c>
-      <c r="L22" s="6">
+      <c r="L22" s="5">
         <f t="shared" si="0"/>
         <v>25.570838935160833</v>
       </c>
     </row>
     <row r="23" spans="1:12" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="B23" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="F23" s="6">
+      <c r="F23" s="5">
         <v>335</v>
       </c>
-      <c r="G23" s="9">
-        <v>374.44997499999999</v>
-      </c>
-      <c r="H23" s="6">
+      <c r="G23" s="8">
+        <v>374.44997499999999</v>
+      </c>
+      <c r="H23" s="5">
         <f t="shared" si="1"/>
         <v>0.89464553976802907</v>
       </c>
-      <c r="I23" s="19" t="s">
+      <c r="I23" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="J23" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="J23" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="K23" s="6">
+      <c r="K23" s="5">
         <v>30215</v>
       </c>
-      <c r="L23" s="6">
+      <c r="L23" s="5">
         <f t="shared" si="0"/>
         <v>80.691686519674619</v>
       </c>
     </row>
     <row r="24" spans="1:12" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="B24" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="F24" s="6">
+      <c r="F24" s="5">
         <v>8</v>
       </c>
-      <c r="G24" s="9">
-        <v>374.44997499999999</v>
-      </c>
-      <c r="H24" s="6">
+      <c r="G24" s="8">
+        <v>374.44997499999999</v>
+      </c>
+      <c r="H24" s="5">
         <f t="shared" si="1"/>
         <v>2.1364669606400696E-2</v>
       </c>
-      <c r="I24" s="19" t="s">
+      <c r="I24" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="J24" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="J24" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="K24" s="6">
+      <c r="K24" s="5">
         <v>172</v>
       </c>
-      <c r="L24" s="6">
+      <c r="L24" s="5">
         <f t="shared" si="0"/>
         <v>0.45934039653761494</v>
       </c>
     </row>
     <row r="25" spans="1:12" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="F25" s="6">
+        <v>193</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F25" s="5">
         <v>9</v>
       </c>
-      <c r="G25" s="9">
-        <v>374.44997499999999</v>
-      </c>
-      <c r="H25" s="6">
+      <c r="G25" s="8">
+        <v>374.44997499999999</v>
+      </c>
+      <c r="H25" s="5">
         <f t="shared" si="1"/>
         <v>2.4035253307200782E-2</v>
       </c>
-      <c r="I25" s="19" t="s">
+      <c r="I25" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="J25" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="J25" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="K25" s="6">
+      <c r="K25" s="5">
         <v>5040</v>
       </c>
-      <c r="L25" s="6">
+      <c r="L25" s="5">
         <f t="shared" si="0"/>
         <v>13.459741852032439</v>
       </c>
     </row>
     <row r="26" spans="1:12" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="B26" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="F26" s="6">
+      <c r="F26" s="5">
         <v>92</v>
       </c>
-      <c r="G26" s="9">
-        <v>374.44997499999999</v>
-      </c>
-      <c r="H26" s="6">
+      <c r="G26" s="8">
+        <v>374.44997499999999</v>
+      </c>
+      <c r="H26" s="5">
         <f t="shared" si="1"/>
         <v>0.245693700473608</v>
       </c>
-      <c r="I26" s="19" t="s">
+      <c r="I26" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="J26" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="J26" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="K26" s="6">
+      <c r="K26" s="5">
         <v>380</v>
       </c>
-      <c r="L26" s="6">
+      <c r="L26" s="5">
         <f t="shared" si="0"/>
         <v>1.0148218063040331</v>
       </c>
     </row>
     <row r="27" spans="1:12" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="B27" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="F27" s="6">
+      <c r="F27" s="5">
         <v>2</v>
       </c>
-      <c r="G27" s="9">
-        <v>374.44997499999999</v>
-      </c>
-      <c r="H27" s="6">
+      <c r="G27" s="8">
+        <v>374.44997499999999</v>
+      </c>
+      <c r="H27" s="5">
         <f t="shared" si="1"/>
         <v>5.3411674016001741E-3</v>
       </c>
-      <c r="I27" s="19" t="s">
+      <c r="I27" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="J27" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="J27" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="K27" s="6">
+      <c r="K27" s="5">
         <v>48</v>
       </c>
-      <c r="L27" s="6">
+      <c r="L27" s="5">
         <f t="shared" si="0"/>
         <v>0.12818801763840418</v>
       </c>
     </row>
     <row r="28" spans="1:12" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="B28" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="F28" s="6">
+      <c r="F28" s="5">
         <v>724</v>
       </c>
-      <c r="G28" s="9">
-        <v>374.44997499999999</v>
-      </c>
-      <c r="H28" s="6">
+      <c r="G28" s="8">
+        <v>374.44997499999999</v>
+      </c>
+      <c r="H28" s="5">
         <f t="shared" si="1"/>
         <v>1.9335025993792629</v>
       </c>
-      <c r="I28" s="19" t="s">
+      <c r="I28" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="J28" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="J28" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="K28" s="6">
+      <c r="K28" s="5">
         <v>1622</v>
       </c>
-      <c r="L28" s="6">
+      <c r="L28" s="5">
         <f t="shared" si="0"/>
         <v>4.3316867626977409</v>
       </c>
     </row>
     <row r="29" spans="1:12" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="B29" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="F29" s="6">
+      <c r="F29" s="5">
         <v>7</v>
       </c>
-      <c r="G29" s="9">
-        <v>374.44997499999999</v>
-      </c>
-      <c r="H29" s="6">
+      <c r="G29" s="8">
+        <v>374.44997499999999</v>
+      </c>
+      <c r="H29" s="5">
         <f t="shared" si="1"/>
         <v>1.8694085905600608E-2</v>
       </c>
-      <c r="I29" s="19" t="s">
+      <c r="I29" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="J29" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="J29" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="K29" s="6">
+      <c r="K29" s="5">
         <v>160</v>
       </c>
-      <c r="L29" s="6">
+      <c r="L29" s="5">
         <f t="shared" si="0"/>
         <v>0.42729339212801393</v>
       </c>
     </row>
     <row r="30" spans="1:12" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="E30" s="5">
+        <v>0</v>
+      </c>
+      <c r="F30" s="5">
+        <v>0</v>
+      </c>
+      <c r="G30" s="8">
+        <v>374.44997499999999</v>
+      </c>
+      <c r="H30" s="5">
+        <v>0</v>
+      </c>
+      <c r="I30" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="J30" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="K30" s="5">
         <v>199</v>
       </c>
-      <c r="B30" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="C30" s="22" t="s">
-        <v>213</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>209</v>
-      </c>
-      <c r="E30" s="6">
-        <v>0</v>
-      </c>
-      <c r="F30" s="6">
-        <v>0</v>
-      </c>
-      <c r="G30" s="9">
-        <v>374.44997499999999</v>
-      </c>
-      <c r="H30" s="6">
-        <v>0</v>
-      </c>
-      <c r="I30" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="J30" s="18" t="s">
+      <c r="L30" s="5">
+        <f t="shared" si="0"/>
+        <v>0.53144615645921733</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="B31" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="K30" s="6">
-        <v>199</v>
-      </c>
-      <c r="L30" s="6">
-        <f t="shared" si="0"/>
-        <v>0.53144615645921733</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="20" t="s">
-        <v>200</v>
-      </c>
-      <c r="B31" s="14" t="s">
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="F31" s="6">
+      <c r="F31" s="5">
         <v>132</v>
       </c>
-      <c r="G31" s="9">
-        <v>374.44997499999999</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="G31" s="8">
+        <v>374.44997499999999</v>
+      </c>
+      <c r="H31" s="6">
         <f t="shared" ref="H31:H44" si="2">F31/G31</f>
         <v>0.35251704850561144</v>
       </c>
-      <c r="I31" s="14" t="s">
+      <c r="I31" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="J31" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="J31" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="K31" s="6">
+      <c r="K31" s="5">
         <v>1049</v>
       </c>
-      <c r="L31" s="6">
+      <c r="L31" s="5">
         <f t="shared" si="0"/>
         <v>2.8014423021392911</v>
       </c>
     </row>
     <row r="32" spans="1:12" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="B32" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="F32" s="6">
+      <c r="F32" s="5">
         <v>3</v>
       </c>
-      <c r="G32" s="9">
-        <v>374.44997499999999</v>
-      </c>
-      <c r="H32" s="7">
+      <c r="G32" s="8">
+        <v>374.44997499999999</v>
+      </c>
+      <c r="H32" s="6">
         <f t="shared" si="2"/>
         <v>8.0117511024002611E-3</v>
       </c>
-      <c r="I32" s="14" t="s">
+      <c r="I32" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="J32" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="J32" s="14" t="s">
+      <c r="K32" s="5">
+        <v>263</v>
+      </c>
+      <c r="L32" s="5">
+        <f t="shared" si="0"/>
+        <v>0.7023635133104229</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="B33" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="K32" s="6">
-        <v>263</v>
-      </c>
-      <c r="L32" s="6">
-        <f t="shared" si="0"/>
-        <v>0.7023635133104229</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="20" t="s">
-        <v>202</v>
-      </c>
-      <c r="B33" s="14" t="s">
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="F33" s="6">
+      <c r="F33" s="5">
         <v>4</v>
       </c>
-      <c r="G33" s="9">
-        <v>374.44997499999999</v>
-      </c>
-      <c r="H33" s="7">
+      <c r="G33" s="8">
+        <v>374.44997499999999</v>
+      </c>
+      <c r="H33" s="6">
         <f t="shared" si="2"/>
         <v>1.0682334803200348E-2</v>
       </c>
-      <c r="I33" s="14" t="s">
+      <c r="I33" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="J33" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="J33" s="14" t="s">
+      <c r="K33" s="5">
+        <v>411</v>
+      </c>
+      <c r="L33" s="5">
+        <f t="shared" si="0"/>
+        <v>1.0976099010288356</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="B34" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="K33" s="6">
-        <v>411</v>
-      </c>
-      <c r="L33" s="6">
-        <f t="shared" si="0"/>
-        <v>1.0976099010288356</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="20" t="s">
-        <v>203</v>
-      </c>
-      <c r="B34" s="14" t="s">
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="F34" s="6">
+      <c r="F34" s="5">
         <v>24</v>
       </c>
-      <c r="G34" s="9">
-        <v>374.44997499999999</v>
-      </c>
-      <c r="H34" s="7">
+      <c r="G34" s="8">
+        <v>374.44997499999999</v>
+      </c>
+      <c r="H34" s="6">
         <f t="shared" si="2"/>
         <v>6.4094008819202089E-2</v>
       </c>
-      <c r="I34" s="14" t="s">
+      <c r="I34" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="J34" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="J34" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="K34" s="6">
+      <c r="K34" s="5">
         <v>1048</v>
       </c>
-      <c r="L34" s="6">
+      <c r="L34" s="5">
         <f t="shared" si="0"/>
         <v>2.7987717184384913</v>
       </c>
     </row>
     <row r="35" spans="1:12" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="B35" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="F35" s="6">
+        <v>174</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="F35" s="5">
         <v>4</v>
       </c>
-      <c r="G35" s="9">
-        <v>374.44997499999999</v>
-      </c>
-      <c r="H35" s="7">
+      <c r="G35" s="8">
+        <v>374.44997499999999</v>
+      </c>
+      <c r="H35" s="6">
         <f t="shared" si="2"/>
         <v>1.0682334803200348E-2</v>
       </c>
-      <c r="I35" s="14" t="s">
+      <c r="I35" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="J35" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="J35" s="14" t="s">
+      <c r="K35" s="5">
+        <v>311</v>
+      </c>
+      <c r="L35" s="5">
+        <f t="shared" si="0"/>
+        <v>0.83055153094882705</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="B36" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="K35" s="6">
-        <v>311</v>
-      </c>
-      <c r="L35" s="6">
-        <f t="shared" si="0"/>
-        <v>0.83055153094882705</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="20" t="s">
-        <v>176</v>
-      </c>
-      <c r="B36" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F36" s="6">
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F36" s="5">
         <v>30</v>
       </c>
-      <c r="G36" s="9">
-        <v>374.44997499999999</v>
-      </c>
-      <c r="H36" s="7">
+      <c r="G36" s="8">
+        <v>374.44997499999999</v>
+      </c>
+      <c r="H36" s="6">
         <f t="shared" si="2"/>
         <v>8.0117511024002608E-2</v>
       </c>
-      <c r="I36" s="14" t="s">
+      <c r="I36" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="J36" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="J36" s="14" t="s">
+      <c r="K36" s="5">
+        <v>1694</v>
+      </c>
+      <c r="L36" s="5">
+        <f t="shared" si="0"/>
+        <v>4.5239687891553473</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="B37" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="K36" s="6">
-        <v>1694</v>
-      </c>
-      <c r="L36" s="6">
-        <f t="shared" si="0"/>
-        <v>4.5239687891553473</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="20" t="s">
-        <v>204</v>
-      </c>
-      <c r="B37" s="14" t="s">
+      <c r="C37" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="E37" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="C37" s="14" t="s">
-        <v>206</v>
-      </c>
-      <c r="D37" s="14" t="s">
-        <v>207</v>
-      </c>
-      <c r="E37" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="F37" s="6">
+      <c r="F37" s="5">
         <v>472</v>
       </c>
-      <c r="G37" s="9">
-        <v>374.44997499999999</v>
-      </c>
-      <c r="H37" s="7">
+      <c r="G37" s="8">
+        <v>374.44997499999999</v>
+      </c>
+      <c r="H37" s="6">
         <f t="shared" si="2"/>
         <v>1.260515506777641</v>
       </c>
-      <c r="I37" s="14" t="s">
+      <c r="I37" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="J37" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="J37" s="14" t="s">
+      <c r="K37" s="5">
+        <v>13751</v>
+      </c>
+      <c r="L37" s="5">
+        <f t="shared" si="0"/>
+        <v>36.723196469701996</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="B38" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="K37" s="6">
-        <v>13751</v>
-      </c>
-      <c r="L37" s="6">
-        <f t="shared" si="0"/>
-        <v>36.723196469701996</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="20" t="s">
-        <v>205</v>
-      </c>
-      <c r="B38" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="F38" s="6">
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="F38" s="5">
         <v>37</v>
       </c>
-      <c r="G38" s="9">
-        <v>374.44997499999999</v>
-      </c>
-      <c r="H38" s="7">
+      <c r="G38" s="8">
+        <v>374.44997499999999</v>
+      </c>
+      <c r="H38" s="6">
         <f t="shared" si="2"/>
         <v>9.8811596929603215E-2</v>
       </c>
-      <c r="I38" s="14" t="s">
+      <c r="I38" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="J38" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="J38" s="14" t="s">
+      <c r="K38" s="5">
+        <v>22993</v>
+      </c>
+      <c r="L38" s="5">
+        <f t="shared" si="0"/>
+        <v>61.4047310324964</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="K38" s="6">
-        <v>22993</v>
-      </c>
-      <c r="L38" s="6">
-        <f t="shared" si="0"/>
-        <v>61.4047310324964</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="20" t="s">
+      <c r="B39" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="B39" s="14" t="s">
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="F39" s="6">
+      <c r="F39" s="5">
         <v>23</v>
       </c>
-      <c r="G39" s="9">
-        <v>374.44997499999999</v>
-      </c>
-      <c r="H39" s="7">
+      <c r="G39" s="8">
+        <v>374.44997499999999</v>
+      </c>
+      <c r="H39" s="6">
         <f t="shared" si="2"/>
         <v>6.1423425118402E-2</v>
       </c>
-      <c r="I39" s="14" t="s">
+      <c r="I39" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="J39" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="J39" s="14" t="s">
+      <c r="K39" s="5">
+        <v>43871</v>
+      </c>
+      <c r="L39" s="5">
+        <f t="shared" si="0"/>
+        <v>117.16117753780061</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="K39" s="6">
-        <v>43871</v>
-      </c>
-      <c r="L39" s="6">
-        <f t="shared" si="0"/>
-        <v>117.16117753780061</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="20" t="s">
+      <c r="B40" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="B40" s="14" t="s">
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="F40" s="6">
+      <c r="F40" s="5">
         <v>32</v>
       </c>
-      <c r="G40" s="21">
-        <v>374.44997499999999</v>
-      </c>
-      <c r="H40" s="7">
+      <c r="G40" s="20">
+        <v>374.44997499999999</v>
+      </c>
+      <c r="H40" s="6">
         <f t="shared" si="2"/>
         <v>8.5458678425602785E-2</v>
       </c>
-      <c r="I40" s="14" t="s">
+      <c r="I40" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="J40" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="J40" s="14" t="s">
+      <c r="K40" s="5">
+        <v>7036</v>
+      </c>
+      <c r="L40" s="5">
+        <f t="shared" si="0"/>
+        <v>18.790226918829411</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="K40" s="6">
-        <v>7036</v>
-      </c>
-      <c r="L40" s="6">
-        <f t="shared" si="0"/>
-        <v>18.790226918829411</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="20" t="s">
+      <c r="B41" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="B41" s="14" t="s">
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="F41" s="6">
+      <c r="F41" s="5">
         <v>26</v>
       </c>
-      <c r="G41" s="21">
-        <v>374.44997499999999</v>
-      </c>
-      <c r="H41" s="7">
+      <c r="G41" s="20">
+        <v>374.44997499999999</v>
+      </c>
+      <c r="H41" s="6">
         <f t="shared" si="2"/>
         <v>6.9435176220802253E-2</v>
       </c>
-      <c r="I41" s="14" t="s">
+      <c r="I41" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="J41" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="J41" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="K41" s="6">
+      <c r="K41" s="5">
         <v>7149</v>
       </c>
-      <c r="L41" s="6">
+      <c r="L41" s="5">
         <f t="shared" si="0"/>
         <v>19.092002877019823</v>
       </c>
     </row>
     <row r="42" spans="1:12" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B42" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="B42" s="14" t="s">
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="F42" s="6">
+      <c r="F42" s="5">
         <v>178</v>
       </c>
-      <c r="G42" s="21">
-        <v>374.44997499999999</v>
-      </c>
-      <c r="H42" s="7">
+      <c r="G42" s="20">
+        <v>374.44997499999999</v>
+      </c>
+      <c r="H42" s="6">
         <f t="shared" si="2"/>
         <v>0.47536389874241547</v>
       </c>
-      <c r="I42" s="14" t="s">
+      <c r="I42" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="J42" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="J42" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="K42" s="6">
+      <c r="K42" s="5">
         <v>4096</v>
       </c>
-      <c r="L42" s="6">
+      <c r="L42" s="5">
         <f t="shared" si="0"/>
         <v>10.938710838477157</v>
       </c>
     </row>
     <row r="43" spans="1:12" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B43" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="B43" s="14" t="s">
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="F43" s="6">
+      <c r="F43" s="5">
         <v>17</v>
       </c>
-      <c r="G43" s="21">
-        <v>374.44997499999999</v>
-      </c>
-      <c r="H43" s="7">
+      <c r="G43" s="20">
+        <v>374.44997499999999</v>
+      </c>
+      <c r="H43" s="6">
         <f t="shared" si="2"/>
         <v>4.5399922913601475E-2</v>
       </c>
-      <c r="I43" s="14" t="s">
+      <c r="I43" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="J43" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="J43" s="14" t="s">
+      <c r="K43" s="5">
+        <v>1442</v>
+      </c>
+      <c r="L43" s="5">
+        <f t="shared" si="0"/>
+        <v>3.8509816965537254</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="K43" s="6">
-        <v>1442</v>
-      </c>
-      <c r="L43" s="6">
-        <f t="shared" si="0"/>
-        <v>3.8509816965537254</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="20" t="s">
+      <c r="B44" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="B44" s="14" t="s">
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="F44" s="6">
+      <c r="F44" s="5">
         <v>1057</v>
       </c>
-      <c r="G44" s="21">
-        <v>374.44997499999999</v>
-      </c>
-      <c r="H44" s="7">
+      <c r="G44" s="20">
+        <v>374.44997499999999</v>
+      </c>
+      <c r="H44" s="6">
         <f t="shared" si="2"/>
         <v>2.8228069717456918</v>
       </c>
-      <c r="I44" s="14" t="s">
+      <c r="I44" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="J44" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="J44" s="14" t="s">
-        <v>169</v>
-      </c>
-      <c r="K44" s="6">
+      <c r="K44" s="5">
         <v>86285</v>
       </c>
-      <c r="L44" s="6">
+      <c r="L44" s="5">
         <f t="shared" si="0"/>
         <v>230.43131462353548</v>
       </c>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tosha\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCCD2E00-18F3-40E3-8415-23E867E01528}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68A3BBD5-EB9E-4C1F-AF58-23A562B239CD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21165" windowHeight="9555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="221">
   <si>
     <t>85 документов
 91 вхождение</t>
@@ -44,26 +44,6 @@
     <t xml:space="preserve">2 документа
 3 вхождения
 </t>
-  </si>
-  <si>
-    <t>3 текста
-3 примера</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ай да мастер ― невзрачный сверчок из щели подкрылечной.
-Прогремел, как гром железный, до дверей и был таков.
-Ай да рыцарь! Ну куда он!
-Ай да сирень в этом мае!  
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28 документов
-70 вхождений
-</t>
-  </si>
-  <si>
-    <t>684 текста
-1,041 пример</t>
   </si>
   <si>
     <t xml:space="preserve">Ай да Хрипушин! 
@@ -1859,6 +1839,54 @@
   </si>
   <si>
     <t>Конструкция непопулярна для поэтического подкорпуса. В общем корпусе употребима нормально. Скорее всего, это связано с тем, что её использование предполагает какое-то повествование, которое нехарактерно для поэзии.</t>
+  </si>
+  <si>
+    <t>179 текста
+219 примера</t>
+  </si>
+  <si>
+    <t>Д. Г. Новиков. «Ударит крупной трелью реполов...» (1999)
+Там, на родине певчего робина
+(«реполов» ― перевёл Пастернак,
+вот и я не старался особенно
+и себя перевёл абы как)…</t>
+  </si>
+  <si>
+    <t>Поэтический: как
+Общий корпус: что, кто, как, кого, куда, где, когда</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37 документов
+84 вхождений
+</t>
+  </si>
+  <si>
+    <t>765 текста
+1249 пример</t>
+  </si>
+  <si>
+    <t>Д. В. Бобышев. «Кто-то воздух...» [Цикады, сверчок, светляки, 2] (1999)
+Ай да мастер ―
+невзрачный сверчок
+из щели подкрылечной.
+А. В. Ширяевец. Стенька Разин : «Всколыхался ярко-красен...» (1917) 
+― Нажимай сильнее, братцы!
+Ай да соколы! Вперед!
+А. С. Пушкин. Русалка : «Ох, то-то все вы, девки молодые...» (1829-1832) 
+Гость
+Ай да мед!
+И в голову и в ноги так и бьет ―
+Жаль, горек: подсластить его б не худо.</t>
+  </si>
+  <si>
+    <t>Поэтический: имя собственное
+Общий корпус: либо любое имя собственное, либо Пушкин и сукин сын, либо молодец</t>
+  </si>
+  <si>
+    <t>Конструкция нехарактерна для поэтичского подкорпуса, хотя примеры употребления есть и они не слишком редки. В основном встречается в общем корпусе. Сложно сказать, с чем именно связано редкое употребление в поэзии.</t>
+  </si>
+  <si>
+    <t>Конструкция совсем непопулярна для поэтического подкорпуса (1 пример) и распространена для общего корпуса (219 вхождений). Скорее всего, "абы" связано с отношением говорящего к чему-то, в поэзии это явление, видимо, нечастое.</t>
   </si>
 </sst>
 </file>
@@ -2301,8 +2329,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2318,16 +2346,16 @@
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" ht="346.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>0</v>
@@ -2356,49 +2384,59 @@
         <v>4.0165578860033309</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" s="1" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="7"/>
+        <v>166</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>220</v>
+      </c>
       <c r="E2" s="9" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G2" s="8">
         <v>374.44997499999999</v>
       </c>
       <c r="H2" s="10">
         <f>F2/G2</f>
-        <v>5.3411674016001741E-3</v>
+        <v>2.670583700800087E-3</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>4</v>
+        <v>212</v>
       </c>
       <c r="J2" s="8"/>
       <c r="K2" s="8">
-        <v>3</v>
+        <v>219</v>
       </c>
       <c r="L2" s="8">
         <f t="shared" ref="L2:L44" si="0">K2/G2</f>
-        <v>8.0117511024002611E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0.584857830475219</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="1" customFormat="1" ht="250.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
+        <v>217</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>219</v>
+      </c>
       <c r="E3" s="9" t="s">
-        <v>6</v>
+        <v>215</v>
       </c>
       <c r="F3" s="8">
         <v>70</v>
@@ -2411,28 +2449,28 @@
         <v>0.18694085905600608</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>7</v>
+        <v>216</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K3" s="8">
-        <v>1041</v>
+        <v>1249</v>
       </c>
       <c r="L3" s="8">
         <f t="shared" si="0"/>
-        <v>2.7800776325328904</v>
+        <v>3.3355590422993084</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="7"/>
       <c r="E4" s="12" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F4" s="8">
         <v>152</v>
@@ -2445,7 +2483,7 @@
         <v>0.40592872252161322</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J4" s="8"/>
       <c r="K4" s="8">
@@ -2458,19 +2496,19 @@
     </row>
     <row r="5" spans="1:12" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F5" s="15">
         <v>0</v>
@@ -2482,10 +2520,10 @@
         <v>0</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="K5" s="15">
         <v>1560</v>
@@ -2497,15 +2535,15 @@
     </row>
     <row r="6" spans="1:12" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
       <c r="E6" s="14" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F6" s="15">
         <v>3</v>
@@ -2518,10 +2556,10 @@
         <v>8.0117511024002611E-3</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="K6" s="15">
         <v>5</v>
@@ -2533,15 +2571,15 @@
     </row>
     <row r="7" spans="1:12" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
       <c r="E7" s="14" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F7" s="15">
         <v>30</v>
@@ -2554,10 +2592,10 @@
         <v>8.0117511024002608E-2</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J7" s="13" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K7" s="15">
         <v>1694</v>
@@ -2569,15 +2607,15 @@
     </row>
     <row r="8" spans="1:12" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
       <c r="E8" s="14" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F8" s="15">
         <v>99</v>
@@ -2590,10 +2628,10 @@
         <v>0.26438778637920862</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="J8" s="13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="K8" s="15">
         <v>1489</v>
@@ -2605,15 +2643,15 @@
     </row>
     <row r="9" spans="1:12" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
       <c r="E9" s="14" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F9" s="15">
         <v>70</v>
@@ -2626,10 +2664,10 @@
         <v>0.18694085905600608</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J9" s="13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="K9" s="15">
         <v>5005</v>
@@ -2641,15 +2679,15 @@
     </row>
     <row r="10" spans="1:12" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
       <c r="E10" s="14" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F10" s="15">
         <v>60</v>
@@ -2662,10 +2700,10 @@
         <v>0.16023502204800522</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J10" s="13" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K10" s="15">
         <v>1157</v>
@@ -2677,15 +2715,15 @@
     </row>
     <row r="11" spans="1:12" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
       <c r="E11" s="14" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F11" s="15">
         <v>73</v>
@@ -2698,10 +2736,10 @@
         <v>0.19495261015840634</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="J11" s="13" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K11" s="15">
         <v>2161</v>
@@ -2713,15 +2751,15 @@
     </row>
     <row r="12" spans="1:12" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="14" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F12" s="15">
         <v>11</v>
@@ -2734,10 +2772,10 @@
         <v>2.9376420708800956E-2</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="J12" s="13" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="K12" s="15">
         <v>1696</v>
@@ -2749,15 +2787,15 @@
     </row>
     <row r="13" spans="1:12" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="14" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F13" s="15">
         <v>162</v>
@@ -2770,10 +2808,10 @@
         <v>0.43263455952961405</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J13" s="13" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="K13" s="15">
         <v>24367</v>
@@ -2785,19 +2823,19 @@
     </row>
     <row r="14" spans="1:12" s="1" customFormat="1" ht="141" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F14" s="16">
         <v>19</v>
@@ -2810,10 +2848,10 @@
         <v>5.0741090315201652E-2</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="K14" s="8">
         <v>5431</v>
@@ -2825,15 +2863,15 @@
     </row>
     <row r="15" spans="1:12" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F15" s="5">
         <v>132</v>
@@ -2846,10 +2884,10 @@
         <v>0.35251704850561144</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="J15" s="13" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="K15" s="5">
         <v>3726</v>
@@ -2861,15 +2899,15 @@
     </row>
     <row r="16" spans="1:12" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C16" s="17"/>
       <c r="D16" s="17"/>
       <c r="E16" s="13" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F16" s="5">
         <v>195</v>
@@ -2882,10 +2920,10 @@
         <v>0.52076382165601698</v>
       </c>
       <c r="I16" s="13" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J16" s="13" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="K16" s="5">
         <v>833</v>
@@ -2897,15 +2935,15 @@
     </row>
     <row r="17" spans="1:12" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
       <c r="E17" s="13" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F17" s="5">
         <v>386</v>
@@ -2918,10 +2956,10 @@
         <v>1.0308453085088336</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="J17" s="13" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K17" s="5">
         <v>5713</v>
@@ -2933,15 +2971,15 @@
     </row>
     <row r="18" spans="1:12" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
       <c r="E18" s="13" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F18" s="5">
         <v>182</v>
@@ -2954,10 +2992,10 @@
         <v>0.48604623354561582</v>
       </c>
       <c r="I18" s="13" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="J18" s="13" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K18" s="5">
         <v>39163</v>
@@ -2969,15 +3007,15 @@
     </row>
     <row r="19" spans="1:12" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13"/>
       <c r="E19" s="13" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F19" s="5">
         <v>37</v>
@@ -2990,10 +3028,10 @@
         <v>9.8811596929603215E-2</v>
       </c>
       <c r="I19" s="13" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="J19" s="13" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K19" s="5">
         <v>1844</v>
@@ -3005,15 +3043,15 @@
     </row>
     <row r="20" spans="1:12" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
       <c r="E20" s="13" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F20" s="5">
         <v>99</v>
@@ -3026,10 +3064,10 @@
         <v>0.26438778637920862</v>
       </c>
       <c r="I20" s="18" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="J20" s="13" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="K20" s="5">
         <v>6215</v>
@@ -3041,15 +3079,15 @@
     </row>
     <row r="21" spans="1:12" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F21" s="5">
         <v>526</v>
@@ -3062,10 +3100,10 @@
         <v>1.4047270266208458</v>
       </c>
       <c r="I21" s="18" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="J21" s="13" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="K21" s="5">
         <v>11009</v>
@@ -3077,15 +3115,15 @@
     </row>
     <row r="22" spans="1:12" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C22" s="13"/>
       <c r="D22" s="13"/>
       <c r="E22" s="13" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F22" s="5">
         <v>552</v>
@@ -3098,10 +3136,10 @@
         <v>1.4741622028416479</v>
       </c>
       <c r="I22" s="18" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="J22" s="13" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="K22" s="5">
         <v>9575</v>
@@ -3113,15 +3151,15 @@
     </row>
     <row r="23" spans="1:12" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F23" s="5">
         <v>335</v>
@@ -3134,10 +3172,10 @@
         <v>0.89464553976802907</v>
       </c>
       <c r="I23" s="18" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="J23" s="13" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="K23" s="5">
         <v>30215</v>
@@ -3149,15 +3187,15 @@
     </row>
     <row r="24" spans="1:12" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C24" s="13"/>
       <c r="D24" s="13"/>
       <c r="E24" s="13" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F24" s="5">
         <v>8</v>
@@ -3170,10 +3208,10 @@
         <v>2.1364669606400696E-2</v>
       </c>
       <c r="I24" s="18" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="J24" s="13" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="K24" s="5">
         <v>172</v>
@@ -3185,15 +3223,15 @@
     </row>
     <row r="25" spans="1:12" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="13"/>
       <c r="E25" s="13" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F25" s="5">
         <v>9</v>
@@ -3206,10 +3244,10 @@
         <v>2.4035253307200782E-2</v>
       </c>
       <c r="I25" s="18" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="J25" s="13" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="K25" s="5">
         <v>5040</v>
@@ -3221,15 +3259,15 @@
     </row>
     <row r="26" spans="1:12" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C26" s="13"/>
       <c r="D26" s="13"/>
       <c r="E26" s="13" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F26" s="5">
         <v>92</v>
@@ -3242,10 +3280,10 @@
         <v>0.245693700473608</v>
       </c>
       <c r="I26" s="18" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="J26" s="13" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="K26" s="5">
         <v>380</v>
@@ -3257,15 +3295,15 @@
     </row>
     <row r="27" spans="1:12" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="13"/>
       <c r="E27" s="13" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F27" s="5">
         <v>2</v>
@@ -3278,10 +3316,10 @@
         <v>5.3411674016001741E-3</v>
       </c>
       <c r="I27" s="18" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="J27" s="13" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="K27" s="5">
         <v>48</v>
@@ -3293,15 +3331,15 @@
     </row>
     <row r="28" spans="1:12" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C28" s="13"/>
       <c r="D28" s="13"/>
       <c r="E28" s="13" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F28" s="5">
         <v>724</v>
@@ -3314,10 +3352,10 @@
         <v>1.9335025993792629</v>
       </c>
       <c r="I28" s="18" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="J28" s="13" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="K28" s="5">
         <v>1622</v>
@@ -3329,15 +3367,15 @@
     </row>
     <row r="29" spans="1:12" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C29" s="13"/>
       <c r="D29" s="13"/>
       <c r="E29" s="13" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F29" s="5">
         <v>7</v>
@@ -3350,10 +3388,10 @@
         <v>1.8694085905600608E-2</v>
       </c>
       <c r="I29" s="18" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="J29" s="13" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="K29" s="5">
         <v>160</v>
@@ -3365,16 +3403,16 @@
     </row>
     <row r="30" spans="1:12" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E30" s="5">
         <v>0</v>
@@ -3389,10 +3427,10 @@
         <v>0</v>
       </c>
       <c r="I30" s="18" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="J30" s="17" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="K30" s="5">
         <v>199</v>
@@ -3404,15 +3442,15 @@
     </row>
     <row r="31" spans="1:12" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="19" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C31" s="13"/>
       <c r="D31" s="13"/>
       <c r="E31" s="13" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F31" s="5">
         <v>132</v>
@@ -3425,10 +3463,10 @@
         <v>0.35251704850561144</v>
       </c>
       <c r="I31" s="13" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="J31" s="13" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="K31" s="5">
         <v>1049</v>
@@ -3440,15 +3478,15 @@
     </row>
     <row r="32" spans="1:12" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C32" s="13"/>
       <c r="D32" s="13"/>
       <c r="E32" s="13" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F32" s="5">
         <v>3</v>
@@ -3461,10 +3499,10 @@
         <v>8.0117511024002611E-3</v>
       </c>
       <c r="I32" s="13" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="J32" s="13" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="K32" s="5">
         <v>263</v>
@@ -3476,15 +3514,15 @@
     </row>
     <row r="33" spans="1:12" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="19" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C33" s="13"/>
       <c r="D33" s="13"/>
       <c r="E33" s="13" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F33" s="5">
         <v>4</v>
@@ -3497,10 +3535,10 @@
         <v>1.0682334803200348E-2</v>
       </c>
       <c r="I33" s="13" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="J33" s="13" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="K33" s="5">
         <v>411</v>
@@ -3512,15 +3550,15 @@
     </row>
     <row r="34" spans="1:12" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="19" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
       <c r="E34" s="13" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F34" s="5">
         <v>24</v>
@@ -3533,10 +3571,10 @@
         <v>6.4094008819202089E-2</v>
       </c>
       <c r="I34" s="13" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="J34" s="13" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="K34" s="5">
         <v>1048</v>
@@ -3548,15 +3586,15 @@
     </row>
     <row r="35" spans="1:12" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C35" s="13"/>
       <c r="D35" s="13"/>
       <c r="E35" s="13" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F35" s="5">
         <v>4</v>
@@ -3569,10 +3607,10 @@
         <v>1.0682334803200348E-2</v>
       </c>
       <c r="I35" s="13" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="J35" s="13" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="K35" s="5">
         <v>311</v>
@@ -3584,15 +3622,15 @@
     </row>
     <row r="36" spans="1:12" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="19" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C36" s="13"/>
       <c r="D36" s="13"/>
       <c r="E36" s="13" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F36" s="5">
         <v>30</v>
@@ -3605,10 +3643,10 @@
         <v>8.0117511024002608E-2</v>
       </c>
       <c r="I36" s="13" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="J36" s="13" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="K36" s="5">
         <v>1694</v>
@@ -3620,19 +3658,19 @@
     </row>
     <row r="37" spans="1:12" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="19" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F37" s="5">
         <v>472</v>
@@ -3645,10 +3683,10 @@
         <v>1.260515506777641</v>
       </c>
       <c r="I37" s="13" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="J37" s="13" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="K37" s="5">
         <v>13751</v>
@@ -3660,15 +3698,15 @@
     </row>
     <row r="38" spans="1:12" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="19" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C38" s="13"/>
       <c r="D38" s="13"/>
       <c r="E38" s="13" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F38" s="5">
         <v>37</v>
@@ -3681,10 +3719,10 @@
         <v>9.8811596929603215E-2</v>
       </c>
       <c r="I38" s="13" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="J38" s="13" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="K38" s="5">
         <v>22993</v>
@@ -3696,15 +3734,15 @@
     </row>
     <row r="39" spans="1:12" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="19" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C39" s="13"/>
       <c r="D39" s="13"/>
       <c r="E39" s="13" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F39" s="5">
         <v>23</v>
@@ -3717,10 +3755,10 @@
         <v>6.1423425118402E-2</v>
       </c>
       <c r="I39" s="13" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="J39" s="13" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="K39" s="5">
         <v>43871</v>
@@ -3732,15 +3770,15 @@
     </row>
     <row r="40" spans="1:12" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="19" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C40" s="13"/>
       <c r="D40" s="13"/>
       <c r="E40" s="13" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F40" s="5">
         <v>32</v>
@@ -3753,10 +3791,10 @@
         <v>8.5458678425602785E-2</v>
       </c>
       <c r="I40" s="13" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="J40" s="13" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="K40" s="5">
         <v>7036</v>
@@ -3768,15 +3806,15 @@
     </row>
     <row r="41" spans="1:12" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="19" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C41" s="13"/>
       <c r="D41" s="13"/>
       <c r="E41" s="13" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F41" s="5">
         <v>26</v>
@@ -3789,10 +3827,10 @@
         <v>6.9435176220802253E-2</v>
       </c>
       <c r="I41" s="13" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="J41" s="13" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="K41" s="5">
         <v>7149</v>
@@ -3804,15 +3842,15 @@
     </row>
     <row r="42" spans="1:12" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C42" s="13"/>
       <c r="D42" s="13"/>
       <c r="E42" s="13" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F42" s="5">
         <v>178</v>
@@ -3825,10 +3863,10 @@
         <v>0.47536389874241547</v>
       </c>
       <c r="I42" s="13" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="J42" s="13" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="K42" s="5">
         <v>4096</v>
@@ -3840,15 +3878,15 @@
     </row>
     <row r="43" spans="1:12" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C43" s="13"/>
       <c r="D43" s="13"/>
       <c r="E43" s="13" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F43" s="5">
         <v>17</v>
@@ -3861,10 +3899,10 @@
         <v>4.5399922913601475E-2</v>
       </c>
       <c r="I43" s="13" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="J43" s="13" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="K43" s="5">
         <v>1442</v>
@@ -3876,15 +3914,15 @@
     </row>
     <row r="44" spans="1:12" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="19" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
       <c r="E44" s="13" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F44" s="5">
         <v>1057</v>
@@ -3897,10 +3935,10 @@
         <v>2.8228069717456918</v>
       </c>
       <c r="I44" s="13" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="J44" s="13" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="K44" s="5">
         <v>86285</v>
